--- a/Resources/Misc/SyntaCalculations.xlsx
+++ b/Resources/Misc/SyntaCalculations.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\source\repos\GSSolution\Misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\source\repos\GSSolution\Resources\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20085" windowHeight="10500" tabRatio="579" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20085" windowHeight="10500" tabRatio="579" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
     <sheet name="Synta Data" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="Alignments" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="275">
   <si>
     <t>degrees</t>
   </si>
@@ -791,6 +792,69 @@
   </si>
   <si>
     <t>Arcseconds/Second</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>dec1</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>dec2</t>
+  </si>
+  <si>
+    <t>dec error</t>
+  </si>
+  <si>
+    <t>ra error</t>
+  </si>
+  <si>
+    <t>determinant</t>
+  </si>
+  <si>
+    <t>Degrees</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>42 40 N</t>
+  </si>
+  <si>
+    <t>Ha error =</t>
+  </si>
+  <si>
+    <t>Dec error =</t>
+  </si>
+  <si>
+    <t>Altitude error =</t>
+  </si>
+  <si>
+    <t>Azimuth error =</t>
+  </si>
+  <si>
+    <t>Dec Arcmins</t>
+  </si>
+  <si>
+    <t>Ra Arcmins</t>
+  </si>
+  <si>
+    <t>from Two star polar alignment Ralph Pass October 7, 2003 Copyright © 1996-2003 Ralph Pass</t>
+  </si>
+  <si>
+    <t>2 x 2 can only allow for an error in one axes so this will not work on a gem only a fork</t>
   </si>
 </sst>
 </file>
@@ -806,7 +870,7 @@
     <numFmt numFmtId="169" formatCode="0.00000000000"/>
     <numFmt numFmtId="170" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -863,8 +927,15 @@
       <sz val="8"/>
       <name val="MS Sans Serif"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -907,8 +978,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -942,12 +1019,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1023,6 +1118,55 @@
     <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1081,6 +1225,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1300,11 +1445,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="447078584"/>
-        <c:axId val="447079760"/>
+        <c:axId val="490353296"/>
+        <c:axId val="490352120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="447078584"/>
+        <c:axId val="490353296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,7 +1492,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447079760"/>
+        <c:crossAx val="490352120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1355,7 +1500,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="447079760"/>
+        <c:axId val="490352120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,7 +1551,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447078584"/>
+        <c:crossAx val="490353296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1607,11 +1752,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="447080152"/>
-        <c:axId val="447081328"/>
+        <c:axId val="490354080"/>
+        <c:axId val="490354472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="447080152"/>
+        <c:axId val="490354080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,7 +1799,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447081328"/>
+        <c:crossAx val="490354472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1662,7 +1807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="447081328"/>
+        <c:axId val="490354472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,7 +1858,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447080152"/>
+        <c:crossAx val="490354080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7013,7 +7158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -7210,4 +7355,308 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="48">
+        <v>3</v>
+      </c>
+      <c r="H6" s="46">
+        <f>G6*15</f>
+        <v>45</v>
+      </c>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G7" s="48">
+        <v>48</v>
+      </c>
+      <c r="H7" s="46"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" s="48">
+        <v>23</v>
+      </c>
+      <c r="H8" s="46">
+        <f>G8* 15</f>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G9" s="48">
+        <v>45</v>
+      </c>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G10" s="48">
+        <v>-12</v>
+      </c>
+      <c r="H10" s="46">
+        <f>G10/60</f>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G11" s="48">
+        <v>-21</v>
+      </c>
+      <c r="H11" s="46">
+        <f>G11/60</f>
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="46">
+        <v>42.666666669999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="49">
+        <v>4</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="45">
+        <f>J14*G14+J15*H14</f>
+        <v>-0.2</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" s="52">
+        <f>TAN(G9)*SIN(H8)-TAN(G7)*SIN(H6)</f>
+        <v>-1.9023434297983397</v>
+      </c>
+      <c r="H14" s="53">
+        <f>COS(H12)*(TAN(G7)*COS(H6)-TAN(G9)*COS(H8))</f>
+        <v>-0.18392326893206981</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="J14" s="55">
+        <f>E19</f>
+        <v>8.3066963446058462E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="49"/>
+      <c r="D15" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="45">
+        <f>J14*G15+J15*H15</f>
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52">
+        <f>COS(H8) - COS(H6)</f>
+        <v>0.31376593904209982</v>
+      </c>
+      <c r="H15" s="53">
+        <f>COS(H12)*(SIN(H8)-SIN(H6))</f>
+        <v>-0.35208080814162784</v>
+      </c>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55">
+        <f>E20</f>
+        <v>1.0014926977702903</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C17" s="56">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G17" s="57">
+        <f>COS(H12)*((TAN(G7)+TAN(G9))*(1-COS(H6-H8)))</f>
+        <v>0.72748746931447905</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="58">
+        <v>6</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" s="6">
+        <f>J19*G19 + J20*H19</f>
+        <v>8.3066963446058462E-3</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="G19" s="61">
+        <f>(COS(H12)*(SIN(H8)-SIN(H6)))/ G17</f>
+        <v>-0.48396820975266858</v>
+      </c>
+      <c r="H19" s="62">
+        <f>-COS(H12) * (TAN(G7)*COS(H6)-TAN(G9)*COS(H8)) / G17</f>
+        <v>0.25281984458836537</v>
+      </c>
+      <c r="I19" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="J19" s="64">
+        <f>H10</f>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="58"/>
+      <c r="D20" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20" s="6">
+        <f>J19*G20+J20*H20</f>
+        <v>1.0014926977702903</v>
+      </c>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61">
+        <f>(COS(H6)-COS(H8)) / G17</f>
+        <v>-0.43130081585840313</v>
+      </c>
+      <c r="H20" s="62">
+        <f>(TAN(G9)*SIN(H8)-TAN(G7)*SIN(H6)) / G17</f>
+        <v>-2.6149500988531704</v>
+      </c>
+      <c r="I20" s="63"/>
+      <c r="J20" s="64">
+        <f>H11</f>
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22">
+        <f>E14* 60</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E23">
+        <f>E15*60</f>
+        <v>-21.000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C19:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Resources/Misc/SyntaCalculations.xlsx
+++ b/Resources/Misc/SyntaCalculations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20085" windowHeight="10500" tabRatio="579" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20085" windowHeight="10500" tabRatio="579"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="278">
   <si>
     <t>degrees</t>
   </si>
@@ -855,6 +855,15 @@
   </si>
   <si>
     <t>2 x 2 can only allow for an error in one axes so this will not work on a gem only a fork</t>
+  </si>
+  <si>
+    <t>arcseconds</t>
+  </si>
+  <si>
+    <t>Duration (ms)</t>
+  </si>
+  <si>
+    <t>Microsteps To ms</t>
   </si>
 </sst>
 </file>
@@ -935,7 +944,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -984,8 +993,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1037,37 +1052,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1095,9 +1169,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1108,8 +1179,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1128,20 +1197,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1149,24 +1209,95 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1445,11 +1576,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490353296"/>
-        <c:axId val="490352120"/>
+        <c:axId val="425574360"/>
+        <c:axId val="425570048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="490353296"/>
+        <c:axId val="425574360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1492,7 +1623,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490352120"/>
+        <c:crossAx val="425570048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1500,7 +1631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="490352120"/>
+        <c:axId val="425570048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1551,7 +1682,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490353296"/>
+        <c:crossAx val="425574360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1615,6 +1746,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1752,11 +1884,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="490354080"/>
-        <c:axId val="490354472"/>
+        <c:axId val="425569656"/>
+        <c:axId val="425570440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="490354080"/>
+        <c:axId val="425569656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1799,7 +1931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490354472"/>
+        <c:crossAx val="425570440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1807,7 +1939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="490354472"/>
+        <c:axId val="425570440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,7 +1990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490354080"/>
+        <c:crossAx val="425569656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3349,8 +3481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3366,837 +3498,866 @@
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
     <col min="19" max="19" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="A1" s="53"/>
+      <c r="B1" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C1" s="64"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="64">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="53"/>
+      <c r="K1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="64">
         <v>3600</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="53"/>
+      <c r="O1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="64">
         <v>3600</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="58">
         <v>20</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="95" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="56">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="57">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="58">
         <f t="shared" ref="C3:C10" si="0">$C$2*B3</f>
         <v>0.01</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="87">
         <v>1</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="88">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="89">
         <f t="shared" ref="H3:H10" si="1">$H$1*G3</f>
         <v>1.0199999999999999E-2</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="87">
         <v>1</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="88">
         <v>36</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="96">
         <f t="shared" ref="L3:L10" si="2">K3/$L$1</f>
         <v>0.01</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="87">
         <v>1</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="88">
         <v>36</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="96">
         <f t="shared" ref="P3:P10" si="3">O3/$L$1</f>
         <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="56">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="57">
         <v>1E-3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="58">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="87">
         <v>2</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="88">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="89">
         <f t="shared" si="1"/>
         <v>2.0399999999999998E-2</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="87">
         <v>2</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="88">
         <v>72</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="96">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="87">
         <v>2</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="88">
         <v>72</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="96">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="56">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="57">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="58">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="87">
         <v>3</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="88">
         <v>4.7E-2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="89">
         <f t="shared" si="1"/>
         <v>0.14100000000000001</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="87">
         <v>3</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="88">
         <v>504</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="96">
         <f t="shared" si="2"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="87">
         <v>3</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="88">
         <v>504</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="96">
         <f t="shared" si="3"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="56">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="57">
         <v>0.01</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="58">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="87">
         <v>4</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="88">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="89">
         <f t="shared" si="1"/>
         <v>0.20400000000000001</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="87">
         <v>4</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="88">
         <v>720</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="96">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="87">
         <v>4</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="88">
         <v>720</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="96">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="56">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="57">
         <v>0.03</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="58">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="87">
         <v>5</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="88">
         <v>0.2</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="89">
         <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="87">
         <v>5</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="88">
         <v>2160</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="96">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="87">
         <v>5</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="88">
         <v>2160</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="96">
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="56">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="57">
         <v>0.06</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="58">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="87">
         <v>6</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="88">
         <v>0.4</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="89">
         <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="87">
         <v>6</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="88">
         <v>4320</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="96">
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="87">
         <v>6</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="88">
         <v>4320</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="96">
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="56">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="57">
         <v>0.1</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="58">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="87">
         <v>7</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="88">
         <v>0.8</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="89">
         <f t="shared" si="1"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="87">
         <v>7</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="88">
         <v>8640</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="96">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="87">
         <v>7</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="88">
         <v>8640</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="96">
         <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="59">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="60">
         <v>0.17</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="61">
         <f t="shared" si="0"/>
         <v>3.4000000000000004</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="90">
         <v>8</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="91">
         <v>1</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="92">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="90">
         <v>8</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="91">
         <v>12600</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="97">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="90">
         <v>8</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="91">
         <v>12600</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="97">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
     </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="54" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C12" s="64"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="56"/>
+      <c r="B13" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="58">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="56">
         <v>1</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="57">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="58">
         <f>$C$2*B14</f>
         <v>0.01</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="53"/>
+      <c r="G14" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="64">
         <v>2</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="53"/>
+      <c r="K14" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="64">
         <v>3.5</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="N14" s="53"/>
+      <c r="O14" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="64">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="56">
         <v>2</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="57">
         <v>1E-3</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="58">
         <f>$C$2*B15</f>
         <v>0.02</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N15" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="86" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="59">
         <v>3</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="60">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="61">
         <f>$C$2*B16</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="87">
         <v>1</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="88">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="89">
         <f t="shared" ref="H16:H23" si="4">ROUND($H$14*G16,3)</f>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="87">
         <v>1</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="88">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="89">
         <f t="shared" ref="L16:L23" si="5">ROUND($L$14*K16,3)</f>
         <v>1.2E-2</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="87">
         <v>1</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="88">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="89">
         <f t="shared" ref="P16:P23" si="6">ROUND($P$14*O16,3)</f>
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F17" s="11">
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="87">
         <v>2</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="88">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="89">
         <f t="shared" si="4"/>
         <v>1.4E-2</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="87">
         <v>2</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="88">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="89">
         <f t="shared" si="5"/>
         <v>2.4E-2</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="87">
         <v>2</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="88">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="89">
         <f t="shared" si="6"/>
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="54">
         <v>20</v>
       </c>
-      <c r="F18" s="11">
+      <c r="D18" s="64"/>
+      <c r="F18" s="87">
         <v>3</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="88">
         <v>4.7E-2</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="89">
         <f t="shared" si="4"/>
         <v>9.4E-2</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="87">
         <v>3</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="88">
         <v>4.7E-2</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="89">
         <f t="shared" si="5"/>
         <v>0.16500000000000001</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="87">
         <v>3</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="88">
         <v>4.7E-2</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="89">
         <f t="shared" si="6"/>
         <v>0.23499999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="56">
         <v>1</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="57">
         <v>0.02</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="57">
         <f>C21*B19</f>
         <v>0.1</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="58">
         <v>1.6</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="87">
         <v>4</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="88">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="89">
         <f t="shared" si="4"/>
         <v>0.13600000000000001</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="87">
         <v>4</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="88">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="89">
         <f t="shared" si="5"/>
         <v>0.23799999999999999</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="87">
         <v>4</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="88">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="89">
         <f t="shared" si="6"/>
         <v>0.34</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="56">
         <v>2</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="57">
         <v>0.1</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="57">
         <f>C21*B20</f>
         <v>0.5</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="58">
         <v>8</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="87">
         <v>5</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="88">
         <v>0.2</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="89">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="87">
         <v>5</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="88">
         <v>0.2</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="89">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="87">
         <v>5</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="88">
         <v>0.2</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="89">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="59">
         <v>3</v>
       </c>
-      <c r="C21">
+      <c r="B21" s="60"/>
+      <c r="C21" s="60">
         <f>C18*250/1000</f>
         <v>5</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="61">
         <v>80</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="87">
         <v>6</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="88">
         <v>0.4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="89">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="87">
         <v>6</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="88">
         <v>0.4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="89">
         <f t="shared" si="5"/>
         <v>1.4</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="87">
         <v>6</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="88">
         <v>0.4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="89">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F22" s="11">
+      <c r="F22" s="87">
         <v>7</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="88">
         <v>0.8</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="89">
         <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="87">
         <v>7</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="88">
         <v>0.8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="89">
         <f t="shared" si="5"/>
         <v>2.8</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="87">
         <v>7</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="88">
         <v>0.8</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="89">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F23" s="11">
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="90">
         <v>8</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="91">
         <v>1</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="92">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="90">
         <v>8</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="91">
         <v>1</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="92">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="90">
         <v>8</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="91">
         <v>1</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="92">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="F25" s="16" t="s">
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
+      <c r="F25" s="62" t="s">
         <v>34</v>
       </c>
+      <c r="G25" s="54"/>
+      <c r="H25" s="64"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="B26" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="F26" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+      <c r="F26" s="56" t="s">
         <v>24</v>
       </c>
+      <c r="G26" s="57"/>
+      <c r="H26" s="58"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="B27" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="C27" s="57"/>
+      <c r="D27" s="65">
+        <v>3869</v>
+      </c>
+      <c r="F27" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="2">
+      <c r="G27" s="57"/>
+      <c r="H27" s="65">
         <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B28" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D28">
+      <c r="C28" s="57"/>
+      <c r="D28" s="58">
         <f>D27/1000</f>
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
+        <v>3.8690000000000002</v>
+      </c>
+      <c r="F28" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H28">
+      <c r="G28" s="57"/>
+      <c r="H28" s="58">
         <f>H27/1000</f>
         <v>0.13</v>
       </c>
@@ -4215,16 +4376,18 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B29" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="2">
+      <c r="C29" s="57"/>
+      <c r="D29" s="65">
         <v>15.041</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="2">
+      <c r="G29" s="57"/>
+      <c r="H29" s="65">
         <v>15.041</v>
       </c>
       <c r="N29" t="s">
@@ -4236,17 +4399,19 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="B30" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D30">
+      <c r="C30" s="57"/>
+      <c r="D30" s="58">
         <f>D29/3600</f>
         <v>4.1780555555555555E-3</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="H30">
+      <c r="G30" s="57"/>
+      <c r="H30" s="58">
         <f>H29/3600</f>
         <v>4.1780555555555555E-3</v>
       </c>
@@ -4256,46 +4421,52 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="B31" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="2">
+      <c r="C31" s="57"/>
+      <c r="D31" s="65">
         <v>0.5</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="2">
+      <c r="G31" s="57"/>
+      <c r="H31" s="65">
         <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="B32" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D32">
+      <c r="C32" s="57"/>
+      <c r="D32" s="58">
         <f>D30*D31</f>
         <v>2.0890277777777778E-3</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H32">
+      <c r="G32" s="57"/>
+      <c r="H32" s="58">
         <f>H30*H31</f>
         <v>2.0890277777777778E-3</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="B33" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="12">
+      <c r="C33" s="57"/>
+      <c r="D33" s="66">
         <v>11136000</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="12">
+      <c r="G33" s="57"/>
+      <c r="H33" s="66">
         <v>5184000</v>
       </c>
       <c r="N33" t="s">
@@ -4307,33 +4478,37 @@
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="B34" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D34">
+      <c r="C34" s="57"/>
+      <c r="D34" s="58">
         <f>D33/360/3600</f>
         <v>8.5925925925925917</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="H34">
+      <c r="G34" s="57"/>
+      <c r="H34" s="58">
         <f>H33/360/3600</f>
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="B35" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D35">
+      <c r="C35" s="57"/>
+      <c r="D35" s="58">
         <f>D28*D32*3600</f>
-        <v>7.5205000000000002</v>
-      </c>
-      <c r="F35" t="s">
+        <v>29.096814500000001</v>
+      </c>
+      <c r="F35" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H35">
+      <c r="G35" s="57"/>
+      <c r="H35" s="58">
         <f>H28*H32*3600</f>
         <v>0.9776649999999999</v>
       </c>
@@ -4351,35 +4526,37 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D36">
+      <c r="C36" s="60"/>
+      <c r="D36" s="61">
         <f>D34*D35</f>
-        <v>64.620592592592587</v>
-      </c>
-      <c r="F36" t="s">
+        <v>250.01707274074073</v>
+      </c>
+      <c r="F36" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="H36">
+      <c r="G36" s="60"/>
+      <c r="H36" s="61">
         <f>H34*H35</f>
         <v>3.9106599999999996</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="N38" s="27" t="s">
+    <row r="38" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N38" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16" t="s">
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="67" t="s">
         <v>37</v>
       </c>
       <c r="N39" t="s">
@@ -4405,29 +4582,29 @@
       <c r="F40" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="57">
         <f>HEX2DEC(MID(H40,1,2)) * POWER(16,0)</f>
         <v>183</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="57">
         <f>HEX2DEC(MID(H40,3,2))* POWER(16,2)</f>
         <v>256</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="57">
         <f>HEX2DEC(MID(H40,5,2))* POWER(16,4)</f>
         <v>0</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="58">
         <f>I40+J40+K40</f>
         <v>439</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="1">
         <v>-4</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="1">
         <v>64</v>
       </c>
       <c r="P40">
@@ -4449,27 +4626,27 @@
       </c>
       <c r="D41">
         <f>D28*D32*3600</f>
-        <v>7.5205000000000002</v>
+        <v>29.096814500000001</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="57">
         <f t="shared" ref="I41:I44" si="7">HEX2DEC(MID(H41,1,2)) * POWER(16,0)</f>
         <v>239</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="57">
         <f t="shared" ref="J41:J44" si="8">HEX2DEC(MID(H41,3,2))* POWER(16,2)</f>
         <v>12544</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="57">
         <f t="shared" ref="K41:K44" si="9">HEX2DEC(MID(H41,5,2))* POWER(16,4)</f>
         <v>6619136</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="58">
         <f t="shared" ref="L41:L44" si="10">I41+J41+K41</f>
         <v>6631919</v>
       </c>
@@ -4485,22 +4662,22 @@
       <c r="E42" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="57">
         <f t="shared" si="7"/>
         <v>183</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="57">
         <f t="shared" si="8"/>
         <v>256</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="57">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="58">
         <f t="shared" si="10"/>
         <v>439</v>
       </c>
@@ -4511,80 +4688,87 @@
       </c>
       <c r="D43">
         <f>D41*D42</f>
-        <v>64.620592592592587</v>
+        <v>250.01707274074073</v>
       </c>
       <c r="E43" t="s">
         <v>19</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="57">
         <f t="shared" si="7"/>
         <v>155</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="57">
         <f t="shared" si="8"/>
         <v>58624</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="57">
         <f t="shared" si="9"/>
         <v>8323072</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="58">
         <f t="shared" si="10"/>
         <v>8381851</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>25</v>
       </c>
       <c r="D44">
         <f>ROUNDUP(D43,0)</f>
-        <v>65</v>
-      </c>
-      <c r="H44" s="2"/>
-      <c r="I44">
+        <v>251</v>
+      </c>
+      <c r="H44" s="69"/>
+      <c r="I44" s="60">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="60">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="60">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="61">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
+    <row r="45" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H46" s="36" t="s">
+      <c r="H46" s="70" t="s">
         <v>148</v>
       </c>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="64"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="2">
-        <v>63</v>
+      <c r="D47">
+        <v>1.2924118518518517</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="68">
         <v>439</v>
       </c>
-      <c r="J47" t="str">
+      <c r="I47" s="57"/>
+      <c r="J47" s="57" t="str">
         <f>DEC2HEX(H47,6)</f>
         <v>0001B7</v>
       </c>
-      <c r="L47" s="35" t="str">
+      <c r="K47" s="57"/>
+      <c r="L47" s="71" t="str">
         <f>MID(J47,5,2) &amp; MID(J47,3,2) &amp; MID(J47,1,2)</f>
         <v>B70100</v>
       </c>
@@ -4600,282 +4784,436 @@
       <c r="F48" t="s">
         <v>40</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="68">
         <v>502</v>
       </c>
-      <c r="J48" t="str">
+      <c r="I48" s="57"/>
+      <c r="J48" s="57" t="str">
         <f t="shared" ref="J48:J50" si="11">DEC2HEX(H48,6)</f>
         <v>0001F6</v>
       </c>
-      <c r="L48" s="35" t="str">
+      <c r="K48" s="57"/>
+      <c r="L48" s="71" t="str">
         <f t="shared" ref="L48:L50" si="12">MID(J48,5,2) &amp; MID(J48,3,2) &amp; MID(J48,1,2)</f>
         <v>F60100</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>30</v>
       </c>
       <c r="D49">
         <f>D41/D48*1000</f>
-        <v>1000</v>
+        <v>3869</v>
       </c>
       <c r="F49" t="s">
         <v>41</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="68">
         <v>1119</v>
       </c>
-      <c r="J49" t="str">
+      <c r="I49" s="57"/>
+      <c r="J49" s="57" t="str">
         <f t="shared" si="11"/>
         <v>00045F</v>
       </c>
-      <c r="L49" s="35" t="str">
+      <c r="K49" s="57"/>
+      <c r="L49" s="71" t="str">
         <f t="shared" si="12"/>
         <v>5F0400</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>32</v>
       </c>
       <c r="D50">
         <f>D49*D47</f>
-        <v>63000</v>
-      </c>
-      <c r="H50" s="2">
+        <v>5000.3414548148139</v>
+      </c>
+      <c r="H50" s="69">
         <v>1118</v>
       </c>
-      <c r="J50" t="str">
+      <c r="I50" s="60"/>
+      <c r="J50" s="60" t="str">
         <f t="shared" si="11"/>
         <v>00045E</v>
       </c>
-      <c r="L50" s="35" t="str">
+      <c r="K50" s="60"/>
+      <c r="L50" s="72" t="str">
         <f t="shared" si="12"/>
         <v>5E0400</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="C52" s="54"/>
+      <c r="D52" s="55">
+        <v>1</v>
+      </c>
       <c r="F52" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <f>250/D34/3600/D32*1000</f>
+        <v>3868.7358003067479</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="C53" s="57"/>
+      <c r="D53" s="58">
+        <f>D52/D34</f>
+        <v>0.1163793103448276</v>
+      </c>
       <c r="F53" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H54" s="16" t="s">
+      <c r="O53">
+        <f>250/8.592592593/3600/0.002089028*1000</f>
+        <v>3868.7353885830848</v>
+      </c>
+      <c r="P53">
+        <f>3600*D32</f>
+        <v>7.5205000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="56"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="58">
+        <f>D53/3600</f>
+        <v>3.2327586206896553E-5</v>
+      </c>
+      <c r="H54" s="62" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H55" s="28" t="s">
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="64"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55" s="56"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="58">
+        <f>D54/D32</f>
+        <v>1.5474943201226991E-2</v>
+      </c>
+      <c r="H55" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="I55" s="28">
+      <c r="I55" s="74">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H56" t="s">
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="58"/>
+      <c r="O55">
+        <f>1000* 0.116379310344827/(7.5205 / 100) * 15.014</f>
+        <v>23234.079722322087</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="59" t="s">
+        <v>276</v>
+      </c>
+      <c r="C56" s="60"/>
+      <c r="D56" s="61">
+        <f>D55*1000</f>
+        <v>15.474943201226992</v>
+      </c>
+      <c r="H56" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="J56" s="29">
+      <c r="I56" s="57"/>
+      <c r="J56" s="75">
         <f>128 * 0.000072921158452214</f>
         <v>9.3339082818833918E-3</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J57" s="18" t="s">
+      <c r="K56" s="57"/>
+      <c r="L56" s="58"/>
+    </row>
+    <row r="57" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H57" s="56"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="L57" s="18" t="s">
+      <c r="K57" s="57"/>
+      <c r="L57" s="77" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B58" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="H58" t="s">
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="64"/>
+      <c r="H58" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="J58">
+      <c r="I58" s="57"/>
+      <c r="J58" s="57">
         <f>IF(I55&gt;J56, I55/16,0)</f>
         <v>0</v>
       </c>
-      <c r="L58">
+      <c r="K58" s="57"/>
+      <c r="L58" s="58">
         <f>IF(I55&gt;J56, 0,I55)</f>
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+      <c r="O58" s="45">
+        <v>11136000</v>
+      </c>
+      <c r="P58">
+        <f>50 /100 * 15.041</f>
+        <v>7.5205000000000002</v>
+      </c>
+      <c r="Q58">
+        <f>15.041/2</f>
+        <v>7.5205000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59" s="56"/>
+      <c r="C59" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="82">
         <v>0.84299999999999997</v>
       </c>
-      <c r="H59" t="s">
+      <c r="E59" s="57"/>
+      <c r="F59" s="58"/>
+      <c r="H59" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="J59" t="e">
+      <c r="I59" s="57"/>
+      <c r="J59" s="57" t="e">
         <f>1/J58</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L59">
+      <c r="K59" s="57"/>
+      <c r="L59" s="58">
         <f>1/L58</f>
         <v>333.33333333333331</v>
       </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+      <c r="O59" s="45">
+        <v>1296000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B60" s="56"/>
+      <c r="C60" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="82">
         <v>0.99</v>
       </c>
-      <c r="F60">
+      <c r="E60" s="57"/>
+      <c r="F60" s="58">
         <f>(D60*D59)</f>
         <v>0.83456999999999992</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="J60" t="e">
+      <c r="I60" s="57"/>
+      <c r="J60" s="57" t="e">
         <f>J59 * 0.0320128742779054</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L60">
+      <c r="K60" s="57"/>
+      <c r="L60" s="58">
         <f>L59 * 0.0320128742779054</f>
         <v>10.670958092635132</v>
       </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+      <c r="O60">
+        <f>O58/O59</f>
+        <v>8.5925925925925934</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="56"/>
+      <c r="C61" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="82">
         <v>45.995632171630803</v>
       </c>
-      <c r="F61">
+      <c r="E61" s="57"/>
+      <c r="F61" s="58">
         <f>COS(D61)</f>
         <v>-0.42823497815851352</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="J61" t="e">
+      <c r="I61" s="60"/>
+      <c r="J61" s="60" t="e">
         <f>TRUNC(J60,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L61">
+      <c r="K61" s="60"/>
+      <c r="L61" s="61">
         <f>TRUNC(L60,0)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D62">
+      <c r="O61">
+        <f>1000 * O60/P58</f>
+        <v>1142.5560258749542</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="56"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57">
         <f>(D60*D59)/COS(D61)</f>
         <v>-1.9488599543848548</v>
       </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H63" s="28" t="s">
+      <c r="E62" s="57"/>
+      <c r="F62" s="58"/>
+      <c r="O62">
+        <f>O59/O58</f>
+        <v>0.11637931034482758</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="56"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="58"/>
+      <c r="H63" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="I63" s="28">
+      <c r="I63" s="79">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="64"/>
+      <c r="O63">
+        <f xml:space="preserve"> 250 * O59/O58</f>
+        <v>29.094827586206897</v>
+      </c>
+      <c r="P63">
+        <f>1000* O63/P58</f>
+        <v>3868.7358003067479</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="56"/>
+      <c r="C64" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="57">
         <v>12.8916</v>
       </c>
-      <c r="F64">
+      <c r="E64" s="57"/>
+      <c r="F64" s="58">
         <f>(D65*D64)</f>
         <v>0.4769892</v>
       </c>
-      <c r="H64" s="30" t="s">
+      <c r="H64" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="J64" s="31">
+      <c r="I64" s="57"/>
+      <c r="J64" s="19">
         <f>128 * 0.000072921158452214</f>
         <v>9.3339082818833918E-3</v>
       </c>
-    </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
+      <c r="K64" s="57"/>
+      <c r="L64" s="58"/>
+    </row>
+    <row r="65" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="59"/>
+      <c r="C65" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="60">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F65">
+      <c r="E65" s="60"/>
+      <c r="F65" s="61">
         <f>F64  * 0.6866</f>
         <v>0.32750078471999999</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="J65">
+      <c r="I65" s="57"/>
+      <c r="J65" s="57">
         <f xml:space="preserve"> I63/0.0320128742779054</f>
         <v>156.18716259573398</v>
       </c>
-      <c r="L65">
+      <c r="K65" s="57"/>
+      <c r="L65" s="58">
         <f xml:space="preserve"> I63/0.0320128742779054</f>
         <v>156.18716259573398</v>
       </c>
     </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H66" t="s">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H66" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="J66" s="31">
+      <c r="I66" s="57"/>
+      <c r="J66" s="19">
         <f>1/J65</f>
         <v>6.4025748555810794E-3</v>
       </c>
-      <c r="L66">
+      <c r="K66" s="57"/>
+      <c r="L66" s="58">
         <f>1/L65</f>
         <v>6.4025748555810794E-3</v>
       </c>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H67" s="30" t="s">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H67" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="J67" s="31">
+      <c r="I67" s="57"/>
+      <c r="J67" s="19">
         <f>16/J65</f>
         <v>0.10244119768929727</v>
       </c>
-    </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="J68" s="18" t="s">
+      <c r="K67" s="57"/>
+      <c r="L67" s="58"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H68" s="56"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="L68" s="18" t="s">
+      <c r="K68" s="57"/>
+      <c r="L68" s="77" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H69" s="30" t="s">
+    <row r="69" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H69" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="J69">
+      <c r="I69" s="60"/>
+      <c r="J69" s="60">
         <f>IF(J67&gt;J64,16/J65,0)</f>
         <v>0.10244119768929727</v>
       </c>
-      <c r="L69">
+      <c r="K69" s="60"/>
+      <c r="L69" s="61">
         <f>IF(L66&lt;J64,L66,0)</f>
         <v>6.4025748555810794E-3</v>
       </c>
@@ -4910,22 +5248,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4935,20 +5273,20 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="7" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4956,13 +5294,13 @@
       <c r="B13" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>15.041067178700001</v>
       </c>
       <c r="H13" t="s">
         <v>151</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="23">
         <v>7.2920825775685299E-5</v>
       </c>
     </row>
@@ -4970,7 +5308,7 @@
       <c r="B14" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="6">
         <f>360*60*60</f>
         <v>1296000</v>
       </c>
@@ -5008,11 +5346,11 @@
       <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="15" t="str">
+      <c r="C17" s="6" t="str">
         <f>'Synta Data'!F2</f>
         <v>11,136,000</v>
       </c>
-      <c r="D17" s="15" t="str">
+      <c r="D17" s="6" t="str">
         <f>'Synta Data'!F4</f>
         <v>56,738</v>
       </c>
@@ -5023,7 +5361,7 @@
       <c r="G17" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="11">
         <f>1/$I$13</f>
         <v>13713.503506887599</v>
       </c>
@@ -5067,7 +5405,7 @@
       <c r="G18" t="s">
         <v>161</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="11">
         <f>1/$I$13</f>
         <v>13713.503506887599</v>
       </c>
@@ -5117,21 +5455,21 @@
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="12">
         <v>15.041067178700001</v>
       </c>
     </row>
@@ -5139,7 +5477,7 @@
       <c r="A3" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="12">
         <v>8.5925930000000008</v>
       </c>
     </row>
@@ -5147,29 +5485,29 @@
       <c r="H4" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="12">
         <f>((B25-$B$6)/$C$3)/((D25-$D$6)*86400)</f>
         <v>15.05087548762652</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="26"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5178,15 +5516,15 @@
       <c r="B6">
         <v>2459698</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="8">
         <f t="shared" ref="C6:C25" si="0">TIMEVALUE(MID(A6,12,23))</f>
         <v>0.81632405092592597</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="8">
         <f>C6-$C$6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="11">
         <f t="shared" ref="E6:E25" si="1">((B6-$B$6)/$C$3)-((D6-$D$6)*86400*$C$2)</f>
         <v>0</v>
       </c>
@@ -5198,23 +5536,23 @@
       <c r="B7">
         <v>2459863</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>0.81633841435185184</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="8">
         <f t="shared" ref="D7:D25" si="2">C7-$C$6</f>
         <v>1.4363425925867368E-5</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="11">
         <f t="shared" si="1"/>
         <v>0.53662092773854297</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="15">
         <f t="shared" ref="P7:P25" si="3">B7-B6</f>
         <v>165</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="8">
         <f>D7-D6</f>
         <v>1.4363425925867368E-5</v>
       </c>
@@ -5226,23 +5564,23 @@
       <c r="B8">
         <v>2459999</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>0.81635077546296297</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="8">
         <f t="shared" si="2"/>
         <v>2.6724537037003948E-5</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="11">
         <f t="shared" si="1"/>
         <v>0.30034663730453559</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="15">
         <f t="shared" si="3"/>
         <v>136</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="8">
         <f t="shared" ref="Q8:Q25" si="4">D8-D7</f>
         <v>1.236111111113658E-5</v>
       </c>
@@ -5254,23 +5592,23 @@
       <c r="B9">
         <v>2460144</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="8">
         <f t="shared" si="0"/>
         <v>0.81636372685185188</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="8">
         <f t="shared" si="2"/>
         <v>3.9675925925908295E-5</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="11">
         <f t="shared" si="1"/>
         <v>0.34439166421142176</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="15">
         <f t="shared" si="3"/>
         <v>145</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="8">
         <f t="shared" si="4"/>
         <v>1.2951388888904347E-5</v>
       </c>
@@ -5282,23 +5620,23 @@
       <c r="B10">
         <v>2460815</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="8">
         <f t="shared" si="0"/>
         <v>0.81642341435185184</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="8">
         <f t="shared" si="2"/>
         <v>9.9363425925869109E-5</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="11">
         <f t="shared" si="1"/>
         <v>0.86812176251828532</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="15">
         <f t="shared" si="3"/>
         <v>671</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="8">
         <f t="shared" si="4"/>
         <v>5.9687499999960814E-5</v>
       </c>
@@ -5310,23 +5648,23 @@
       <c r="B11">
         <v>2461085</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="8">
         <f t="shared" si="0"/>
         <v>0.81644763888888894</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="8">
         <f t="shared" si="2"/>
         <v>1.235879629629677E-4</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="11">
         <f t="shared" si="1"/>
         <v>0.80958046066689349</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="15">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="8">
         <f t="shared" si="4"/>
         <v>2.4224537037098592E-5</v>
       </c>
@@ -5338,23 +5676,23 @@
       <c r="B12">
         <v>2461387</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="8">
         <f t="shared" si="0"/>
         <v>0.8164747916666667</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="8">
         <f t="shared" si="2"/>
         <v>1.5074074074072907E-4</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="11">
         <f t="shared" si="1"/>
         <v>0.66978691716468575</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="15">
         <f t="shared" si="3"/>
         <v>302</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="8">
         <f t="shared" si="4"/>
         <v>2.7152777777761372E-5</v>
       </c>
@@ -5366,23 +5704,23 @@
       <c r="B13">
         <v>2461545</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="8">
         <f t="shared" si="0"/>
         <v>0.81648902777777776</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="8">
         <f t="shared" si="2"/>
         <v>1.6497685185179467E-4</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="11">
         <f t="shared" si="1"/>
         <v>0.55720445006406294</v>
       </c>
-      <c r="P13" s="24">
+      <c r="P13" s="15">
         <f t="shared" si="3"/>
         <v>158</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="8">
         <f t="shared" si="4"/>
         <v>1.4236111111065597E-5</v>
       </c>
@@ -5394,23 +5732,23 @@
       <c r="B14">
         <v>2462105</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="8">
         <f t="shared" si="0"/>
         <v>0.81653947916666658</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="8">
         <f t="shared" si="2"/>
         <v>2.1542824074061162E-4</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="11">
         <f t="shared" si="1"/>
         <v>0.16560332123646049</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="15">
         <f t="shared" si="3"/>
         <v>560</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="8">
         <f t="shared" si="4"/>
         <v>5.045138888881695E-5</v>
       </c>
@@ -5422,23 +5760,23 @@
       <c r="B15">
         <v>2462243</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="8">
         <f t="shared" si="0"/>
         <v>0.81655186342592589</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="8">
         <f t="shared" si="2"/>
         <v>2.2781249999992426E-4</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="11">
         <f t="shared" si="1"/>
         <v>0.13200550606251227</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P15" s="15">
         <f t="shared" si="3"/>
         <v>138</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="8">
         <f t="shared" si="4"/>
         <v>1.2384259259312635E-5</v>
       </c>
@@ -5450,23 +5788,23 @@
       <c r="B16">
         <v>2462377</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="8">
         <f t="shared" si="0"/>
         <v>0.81656405092592588</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="8">
         <f t="shared" si="2"/>
         <v>2.3999999999990695E-4</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="11">
         <f t="shared" si="1"/>
         <v>-0.11141138628909175</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="15">
         <f t="shared" si="3"/>
         <v>134</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="8">
         <f t="shared" si="4"/>
         <v>1.2187499999982698E-5</v>
       </c>
@@ -5478,23 +5816,23 @@
       <c r="B17">
         <v>2462515</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="8">
         <f t="shared" si="0"/>
         <v>0.81657662037037027</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="8">
         <f t="shared" si="2"/>
         <v>2.5256944444429497E-4</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="11">
         <f t="shared" si="1"/>
         <v>-0.38566627617956328</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="15">
         <f t="shared" si="3"/>
         <v>138</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="8">
         <f t="shared" si="4"/>
         <v>1.2569444444388012E-5</v>
       </c>
@@ -5506,23 +5844,23 @@
       <c r="B18">
         <v>2462652</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="8">
         <f t="shared" si="0"/>
         <v>0.81658900462962958</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="8">
         <f t="shared" si="2"/>
         <v>2.649537037036076E-4</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="11">
         <f t="shared" si="1"/>
         <v>-0.53564339618043277</v>
       </c>
-      <c r="P18" s="24">
+      <c r="P18" s="15">
         <f t="shared" si="3"/>
         <v>137</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="8">
         <f t="shared" si="4"/>
         <v>1.2384259259312635E-5</v>
       </c>
@@ -5534,23 +5872,23 @@
       <c r="B19">
         <v>2462789</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="8">
         <f t="shared" si="0"/>
         <v>0.81660156249999993</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="8">
         <f t="shared" si="2"/>
         <v>2.775115740739631E-4</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="11">
         <f t="shared" si="1"/>
         <v>-0.91123652377308417</v>
       </c>
-      <c r="P19" s="24">
+      <c r="P19" s="15">
         <f t="shared" si="3"/>
         <v>137</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="Q19" s="8">
         <f t="shared" si="4"/>
         <v>1.2557870370355495E-5</v>
       </c>
@@ -5562,23 +5900,23 @@
       <c r="B20">
         <v>2462927</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="8">
         <f t="shared" si="0"/>
         <v>0.81661377314814809</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="8">
         <f t="shared" si="2"/>
         <v>2.8972222222212185E-4</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="11">
         <f t="shared" si="1"/>
         <v>-0.71921833121092504</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20" s="15">
         <f t="shared" si="3"/>
         <v>138</v>
       </c>
-      <c r="Q20" s="17">
+      <c r="Q20" s="8">
         <f t="shared" si="4"/>
         <v>1.2210648148158754E-5</v>
       </c>
@@ -5590,23 +5928,23 @@
       <c r="B21">
         <v>2463073</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="8">
         <f t="shared" si="0"/>
         <v>0.81662652777777778</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="8">
         <f t="shared" si="2"/>
         <v>3.0247685185180728E-4</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="11">
         <f t="shared" si="1"/>
         <v>-0.30309585749176904</v>
       </c>
-      <c r="P21" s="24">
+      <c r="P21" s="15">
         <f t="shared" si="3"/>
         <v>146</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="8">
         <f t="shared" si="4"/>
         <v>1.2754629629685432E-5</v>
       </c>
@@ -5618,23 +5956,23 @@
       <c r="B22">
         <v>2463214</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="8">
         <f t="shared" si="0"/>
         <v>0.81663890046296295</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="8">
         <f t="shared" si="2"/>
         <v>3.1484953703697638E-4</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="11">
         <f t="shared" si="1"/>
         <v>2.7485309083772336E-2</v>
       </c>
-      <c r="P22" s="24">
+      <c r="P22" s="15">
         <f t="shared" si="3"/>
         <v>141</v>
       </c>
-      <c r="Q22" s="17">
+      <c r="Q22" s="8">
         <f t="shared" si="4"/>
         <v>1.2372685185169097E-5</v>
       </c>
@@ -5646,23 +5984,23 @@
       <c r="B23">
         <v>2463355</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="8">
         <f t="shared" si="0"/>
         <v>0.81665128472222215</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="8">
         <f t="shared" si="2"/>
         <v>3.2723379629617799E-4</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="11">
         <f t="shared" si="1"/>
         <v>0.34302540853451546</v>
       </c>
-      <c r="P23" s="24">
+      <c r="P23" s="15">
         <f t="shared" si="3"/>
         <v>141</v>
       </c>
-      <c r="Q23" s="17">
+      <c r="Q23" s="8">
         <f t="shared" si="4"/>
         <v>1.2384259259201613E-5</v>
       </c>
@@ -5674,23 +6012,23 @@
       <c r="B24">
         <v>2464019</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="8">
         <f t="shared" si="0"/>
         <v>0.81671061342592599</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="8">
         <f t="shared" si="2"/>
         <v>3.8656250000002057E-4</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="11">
         <f t="shared" si="1"/>
         <v>0.51837345536182511</v>
       </c>
-      <c r="P24" s="24">
+      <c r="P24" s="15">
         <f t="shared" si="3"/>
         <v>664</v>
       </c>
-      <c r="Q24" s="17">
+      <c r="Q24" s="8">
         <f t="shared" si="4"/>
         <v>5.9328703703842578E-5</v>
       </c>
@@ -5702,23 +6040,23 @@
       <c r="B25">
         <v>2464455</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="8">
         <f t="shared" si="0"/>
         <v>0.81674978009259258</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="8">
         <f t="shared" si="2"/>
         <v>4.2572916666661076E-4</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="11">
         <f t="shared" si="1"/>
         <v>0.3607790272441207</v>
       </c>
-      <c r="P25" s="24">
+      <c r="P25" s="15">
         <f t="shared" si="3"/>
         <v>436</v>
       </c>
-      <c r="Q25" s="17">
+      <c r="Q25" s="8">
         <f t="shared" si="4"/>
         <v>3.9166666666590189E-5</v>
       </c>
@@ -5727,7 +6065,7 @@
       <c r="A29" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="12">
         <v>50</v>
       </c>
     </row>
@@ -5735,22 +6073,22 @@
       <c r="H30" t="s">
         <v>90</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="12">
         <f>((B39-$B$33)/$C$3)/((D39-$D$33)*86400)</f>
         <v>6.7349134737756537E-5</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5761,7 +6099,7 @@
       <c r="C32">
         <v>200</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="13">
         <f t="shared" ref="D32:D39" si="5">C32-$C$32</f>
         <v>0</v>
       </c>
@@ -5777,7 +6115,7 @@
       <c r="C33">
         <v>201</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="13">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -5793,7 +6131,7 @@
       <c r="C34">
         <v>202</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="13">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -5809,7 +6147,7 @@
       <c r="C35">
         <v>203</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="13">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -5825,7 +6163,7 @@
       <c r="C36">
         <v>204</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="13">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -5841,7 +6179,7 @@
       <c r="C37">
         <v>205</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="13">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -5857,7 +6195,7 @@
       <c r="C38">
         <v>206</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="13">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -5873,7 +6211,7 @@
       <c r="C39">
         <v>207</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="13">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -5898,281 +6236,282 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="18"/>
+      <c r="C2" s="9"/>
       <c r="D2" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="9">
         <v>200</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="9">
         <v>1</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="9">
         <v>20</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="9">
         <v>440</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="9">
         <f>(E2*F2*G2*H2) /360</f>
         <v>4888.8888888888887</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
         <f>E2*F2*G2</f>
         <v>4000</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9">
         <f>(I2/3600) * 15</f>
         <v>20.37037037037037</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="18"/>
+      <c r="C3" s="9"/>
       <c r="D3" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="9">
         <v>400</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="9">
         <v>32</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="9">
         <v>1</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="9">
         <v>360</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="9">
         <f>(E3*F3*G3*H3) /360</f>
         <v>12800</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18">
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
         <f>E3*F3*G3</f>
         <v>12800</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="C4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="18"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="18" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="9">
         <v>31</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="9">
         <v>49.09</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="34">
+      <c r="H7" s="9"/>
+      <c r="I7" s="22">
         <f>E7+(F7/60)+(G7/3600)</f>
         <v>2.5303027777777776</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="18"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="18"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="9">
         <v>18</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="9">
         <v>36</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="9">
         <v>56.336350000000003</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="34">
+      <c r="H11" s="9"/>
+      <c r="I11" s="22">
         <f>E11+(F11/60)+(G11/3600)</f>
         <v>18.615648986111111</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9">
         <f>I11-I7</f>
         <v>16.085346208333334</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18">
+      <c r="L11" s="9"/>
+      <c r="M11" s="9">
         <f>(I11-I7)*3600*M2</f>
         <v>1179592.0552777778</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="18"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -6341,31 +6680,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="24" t="s">
         <v>162</v>
       </c>
       <c r="J1" t="s">
@@ -6373,31 +6712,31 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="25" t="s">
         <v>168</v>
       </c>
       <c r="J2">
@@ -6405,31 +6744,31 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="25" t="s">
         <v>175</v>
       </c>
       <c r="J3">
@@ -6437,31 +6776,31 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="25">
         <v>64935</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="25" t="s">
         <v>180</v>
       </c>
       <c r="J4">
@@ -6469,63 +6808,63 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="25">
         <v>16</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="25">
         <v>16</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="25">
         <v>16</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="25">
         <v>32</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="25">
         <v>16</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="25">
         <v>32</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="25" t="s">
         <v>186</v>
       </c>
       <c r="J6">
@@ -6533,616 +6872,616 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="25" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="25">
         <v>200</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="25">
         <v>200</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="25">
         <v>200</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="25">
         <v>400</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="25">
         <v>200</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="25">
         <v>200</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="25">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="25">
         <v>64</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="25">
         <v>64</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="25">
         <v>32</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="25">
         <v>64</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="25">
         <v>64</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="25">
         <v>32</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="25">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="25" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="25">
         <v>705</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="25">
         <v>705</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="25">
         <v>704</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="25">
         <v>435</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="25">
         <v>720</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="25">
         <v>810</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="25">
         <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="25" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="25">
         <v>180</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="25">
         <v>135</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="25">
         <v>144</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="25">
         <v>435</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="25">
         <v>180</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="25">
         <v>135</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="25">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="25" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="25">
         <v>783.33299999999997</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="25">
         <v>1044.444</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="25">
         <v>400</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="25">
         <v>800</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="25">
         <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="25">
         <v>9.1914890000000007</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="25">
         <v>9.1914890000000007</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="25">
         <v>7.4482759999999999</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="25">
         <v>9</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="25">
         <v>8</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="25">
         <v>0.14361699999999999</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="25">
         <v>0.14361699999999999</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="25">
         <v>0.116379</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="25">
         <v>0.140625</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="25">
         <v>0.25</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="25">
         <v>0.140625</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="25">
         <v>6.9629630000000002</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="25">
         <v>6.9629630000000002</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="25">
         <v>8.5925930000000008</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="25">
         <v>7.1111110000000002</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="25">
         <v>4</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="25">
         <v>7.1111110000000002</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="25" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="25">
         <v>73.536000000000001</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="25">
         <v>203.90100000000001</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="25">
         <v>251.94399999999999</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="I20" s="25" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="25">
         <v>631.86599999999999</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="25" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="25">
         <v>2</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G22" s="25">
         <v>2</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="25">
         <v>100</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="25">
         <v>100</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="25">
         <v>1200</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="25">
         <v>256</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="25">
         <v>512</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="25">
         <v>32</v>
       </c>
-      <c r="I24" s="39">
+      <c r="I24" s="25">
         <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="25">
         <v>29.792999999999999</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="25">
         <v>72</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="25">
         <v>8</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="25">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="H26" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="25" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="G27" s="39" t="s">
+      <c r="G27" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="H27" s="39" t="s">
+      <c r="H27" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="I27" s="39" t="s">
+      <c r="I27" s="25" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="26" t="s">
         <v>240</v>
       </c>
       <c r="J28">
@@ -7165,22 +7504,22 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="27" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" style="41" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>246</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="28">
         <v>15.041</v>
       </c>
       <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I2" s="28">
         <v>1000</v>
       </c>
     </row>
@@ -7188,13 +7527,13 @@
       <c r="B3" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="27">
         <v>3600</v>
       </c>
       <c r="G3" t="s">
         <v>245</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="30">
         <f>I2/1000</f>
         <v>1</v>
       </c>
@@ -7203,14 +7542,14 @@
       <c r="B4" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="27">
         <f>E2/E3</f>
         <v>4.1780555555555555E-3</v>
       </c>
       <c r="G4" t="s">
         <v>250</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="27">
         <f>I3*E4*E3</f>
         <v>15.041</v>
       </c>
@@ -7219,13 +7558,13 @@
       <c r="B5" t="s">
         <v>249</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="27">
         <v>360</v>
       </c>
       <c r="G5" t="s">
         <v>248</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="27">
         <f>I4/3600</f>
         <v>4.1780555555555555E-3</v>
       </c>
@@ -7234,7 +7573,7 @@
       <c r="B7" t="s">
         <v>251</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="27">
         <v>12960000</v>
       </c>
     </row>
@@ -7242,39 +7581,39 @@
       <c r="B8" t="s">
         <v>252</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="27">
         <f>E7/E5/E3</f>
         <v>10</v>
       </c>
-      <c r="I8" s="43"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>253</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="27">
         <f>E8*I4</f>
         <v>150.41</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="27">
         <f>E7</f>
         <v>12960000</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I10" s="41">
+      <c r="I10" s="27">
         <f>I9/360</f>
         <v>36000</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I11" s="41">
+      <c r="I11" s="27">
         <f>I10/3600</f>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I12" s="41">
+      <c r="I12" s="27">
         <f>I11*I5</f>
         <v>4.1780555555555557E-2</v>
       </c>
@@ -7283,15 +7622,15 @@
       <c r="B15" t="s">
         <v>241</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="27">
         <v>86164.091</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="27">
         <v>1000</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I16" s="41">
+      <c r="I16" s="27">
         <f>I15/10/360/60/60</f>
         <v>7.7160493827160506E-5</v>
       </c>
@@ -7300,17 +7639,17 @@
       <c r="B17" t="s">
         <v>242</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="27">
         <f>E5/E15</f>
         <v>4.1780745995451864E-3</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="27">
         <f>I15/10/3600</f>
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I20" s="41">
+      <c r="I20" s="27">
         <v>0.9</v>
       </c>
     </row>
@@ -7318,11 +7657,11 @@
       <c r="B21" t="s">
         <v>243</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="27">
         <f>E7/360/60/60</f>
         <v>10</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="27">
         <v>7.5</v>
       </c>
     </row>
@@ -7330,23 +7669,23 @@
       <c r="B22" t="s">
         <v>244</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="27">
         <f>E21*E17</f>
         <v>4.1780745995451868E-2</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="27">
         <f>I20*(I21/3600)</f>
         <v>1.8749999999999999E-3</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I23" s="41">
+      <c r="I23" s="27">
         <f>I22/10</f>
         <v>1.875E-4</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E24" s="41">
+      <c r="E24" s="27">
         <f>E22*60*60*24</f>
         <v>3609.8564540070415</v>
       </c>
@@ -7361,7 +7700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7378,16 +7717,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7395,241 +7734,241 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="9" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="32" t="s">
         <v>257</v>
       </c>
       <c r="F6" t="s">
         <v>255</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="34">
         <v>3</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="32">
         <f>G6*15</f>
         <v>45</v>
       </c>
-      <c r="J6" s="18"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="33" t="s">
         <v>258</v>
       </c>
       <c r="F7" t="s">
         <v>255</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="34">
         <v>48</v>
       </c>
-      <c r="H7" s="46"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="32" t="s">
         <v>259</v>
       </c>
       <c r="F8" t="s">
         <v>255</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="34">
         <v>23</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="32">
         <f>G8* 15</f>
         <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="33" t="s">
         <v>260</v>
       </c>
       <c r="F9" t="s">
         <v>255</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="34">
         <v>45</v>
       </c>
-      <c r="H9" s="46"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="32" t="s">
         <v>262</v>
       </c>
       <c r="F10" t="s">
         <v>255</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="34">
         <v>-12</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="32">
         <f>G10/60</f>
         <v>-0.2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="33" t="s">
         <v>261</v>
       </c>
       <c r="F11" t="s">
         <v>255</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="34">
         <v>-21</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="32">
         <f>G11/60</f>
         <v>-0.35</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="32" t="s">
         <v>254</v>
       </c>
       <c r="F12" t="s">
         <v>255</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="32">
         <v>42.666666669999998</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="49">
+      <c r="C14" s="51">
         <v>4</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="31">
         <f>J14*G14+J15*H14</f>
         <v>-0.2</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="36">
         <f>TAN(G9)*SIN(H8)-TAN(G7)*SIN(H6)</f>
         <v>-1.9023434297983397</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="37">
         <f>COS(H12)*(TAN(G7)*COS(H6)-TAN(G9)*COS(H8))</f>
         <v>-0.18392326893206981</v>
       </c>
-      <c r="I14" s="54" t="s">
+      <c r="I14" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="38">
         <f>E19</f>
         <v>8.3066963446058462E-3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="49"/>
-      <c r="D15" s="50" t="s">
+      <c r="C15" s="51"/>
+      <c r="D15" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="31">
         <f>J14*G15+J15*H15</f>
         <v>-0.35000000000000003</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52">
+      <c r="F15" s="49"/>
+      <c r="G15" s="36">
         <f>COS(H8) - COS(H6)</f>
         <v>0.31376593904209982</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="37">
         <f>COS(H12)*(SIN(H8)-SIN(H6))</f>
         <v>-0.35208080814162784</v>
       </c>
-      <c r="I15" s="54"/>
-      <c r="J15" s="55">
+      <c r="I15" s="50"/>
+      <c r="J15" s="38">
         <f>E20</f>
         <v>1.0014926977702903</v>
       </c>
     </row>
     <row r="17" spans="3:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="C17" s="56">
+      <c r="C17" s="39">
         <v>5</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="57" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="G17" s="57">
+      <c r="G17" s="40">
         <f>COS(H12)*((TAN(G7)+TAN(G9))*(1-COS(H6-H8)))</f>
         <v>0.72748746931447905</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="58">
+      <c r="C19" s="52">
         <v>6</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3">
         <f>J19*G19 + J20*H19</f>
         <v>8.3066963446058462E-3</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="G19" s="61">
+      <c r="G19" s="42">
         <f>(COS(H12)*(SIN(H8)-SIN(H6)))/ G17</f>
         <v>-0.48396820975266858</v>
       </c>
-      <c r="H19" s="62">
+      <c r="H19" s="43">
         <f>-COS(H12) * (TAN(G7)*COS(H6)-TAN(G9)*COS(H8)) / G17</f>
         <v>0.25281984458836537</v>
       </c>
-      <c r="I19" s="63" t="s">
+      <c r="I19" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="J19" s="64">
+      <c r="J19" s="44">
         <f>H10</f>
         <v>-0.2</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="58"/>
-      <c r="D20" s="59" t="s">
+      <c r="C20" s="52"/>
+      <c r="D20" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="3">
         <f>J19*G20+J20*H20</f>
         <v>1.0014926977702903</v>
       </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="61">
+      <c r="F20" s="47"/>
+      <c r="G20" s="42">
         <f>(COS(H6)-COS(H8)) / G17</f>
         <v>-0.43130081585840313</v>
       </c>
-      <c r="H20" s="62">
+      <c r="H20" s="43">
         <f>(TAN(G9)*SIN(H8)-TAN(G7)*SIN(H6)) / G17</f>
         <v>-2.6149500988531704</v>
       </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64">
+      <c r="I20" s="48"/>
+      <c r="J20" s="44">
         <f>H11</f>
         <v>-0.35</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="32" t="s">
         <v>272</v>
       </c>
       <c r="E22">
@@ -7638,7 +7977,7 @@
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="32" t="s">
         <v>271</v>
       </c>
       <c r="E23">

--- a/Resources/Misc/SyntaCalculations.xlsx
+++ b/Resources/Misc/SyntaCalculations.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="284">
   <si>
     <t>degrees</t>
   </si>
@@ -533,9 +533,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>11,136,000</t>
-  </si>
-  <si>
     <t>9,216,000</t>
   </si>
   <si>
@@ -864,6 +861,27 @@
   </si>
   <si>
     <t>Microsteps To ms</t>
+  </si>
+  <si>
+    <t>factorRadToStep</t>
+  </si>
+  <si>
+    <t>EQ8 SPR</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>remove default 0x00800000</t>
+  </si>
+  <si>
+    <t>step to angle in rad</t>
+  </si>
+  <si>
+    <t>rad to degrees</t>
+  </si>
+  <si>
+    <t>Home Sensor</t>
   </si>
 </sst>
 </file>
@@ -944,7 +962,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -996,6 +1014,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,7 +1161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1216,27 +1240,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1298,6 +1301,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1356,7 +1382,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1576,11 +1601,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425574360"/>
-        <c:axId val="425570048"/>
+        <c:axId val="423329664"/>
+        <c:axId val="423331232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="425574360"/>
+        <c:axId val="423329664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1623,7 +1648,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425570048"/>
+        <c:crossAx val="423331232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1631,7 +1656,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="425570048"/>
+        <c:axId val="423331232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1682,7 +1707,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425574360"/>
+        <c:crossAx val="423329664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1746,7 +1771,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1884,11 +1908,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="425569656"/>
-        <c:axId val="425570440"/>
+        <c:axId val="423332016"/>
+        <c:axId val="423332408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="425569656"/>
+        <c:axId val="423332016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,7 +1955,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425570440"/>
+        <c:crossAx val="423332408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1939,7 +1963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="425570440"/>
+        <c:axId val="423332408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1990,7 +2014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425569656"/>
+        <c:crossAx val="423332016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3481,8 +3505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3504,860 +3528,860 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="53"/>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="46"/>
+      <c r="B1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="83" t="s">
+      <c r="C1" s="57"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="64">
+      <c r="H1" s="57">
         <v>3</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="93" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="64">
+      <c r="L1" s="57">
         <v>3600</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="93" t="s">
+      <c r="N1" s="46"/>
+      <c r="O1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="64">
+      <c r="P1" s="57">
         <v>3600</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="58">
+      <c r="C2" s="51">
         <v>20</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="94" t="s">
+      <c r="K2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="95" t="s">
+      <c r="L2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="84" t="s">
+      <c r="N2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="94" t="s">
+      <c r="O2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="95" t="s">
+      <c r="P2" s="88" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="56">
+      <c r="A3" s="49">
         <v>1</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="50">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C3" s="58">
+      <c r="C3" s="51">
         <f t="shared" ref="C3:C10" si="0">$C$2*B3</f>
         <v>0.01</v>
       </c>
-      <c r="F3" s="87">
+      <c r="F3" s="80">
         <v>1</v>
       </c>
-      <c r="G3" s="88">
+      <c r="G3" s="81">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="H3" s="89">
+      <c r="H3" s="82">
         <f t="shared" ref="H3:H10" si="1">$H$1*G3</f>
         <v>1.0199999999999999E-2</v>
       </c>
-      <c r="J3" s="87">
+      <c r="J3" s="80">
         <v>1</v>
       </c>
-      <c r="K3" s="88">
+      <c r="K3" s="81">
         <v>36</v>
       </c>
-      <c r="L3" s="96">
+      <c r="L3" s="89">
         <f t="shared" ref="L3:L10" si="2">K3/$L$1</f>
         <v>0.01</v>
       </c>
-      <c r="N3" s="87">
+      <c r="N3" s="80">
         <v>1</v>
       </c>
-      <c r="O3" s="88">
+      <c r="O3" s="81">
         <v>36</v>
       </c>
-      <c r="P3" s="96">
+      <c r="P3" s="89">
         <f t="shared" ref="P3:P10" si="3">O3/$L$1</f>
         <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
+      <c r="A4" s="49">
         <v>2</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="50">
         <v>1E-3</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="51">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="F4" s="87">
+      <c r="F4" s="80">
         <v>2</v>
       </c>
-      <c r="G4" s="88">
+      <c r="G4" s="81">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="H4" s="89">
+      <c r="H4" s="82">
         <f t="shared" si="1"/>
         <v>2.0399999999999998E-2</v>
       </c>
-      <c r="J4" s="87">
+      <c r="J4" s="80">
         <v>2</v>
       </c>
-      <c r="K4" s="88">
+      <c r="K4" s="81">
         <v>72</v>
       </c>
-      <c r="L4" s="96">
+      <c r="L4" s="89">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="N4" s="87">
+      <c r="N4" s="80">
         <v>2</v>
       </c>
-      <c r="O4" s="88">
+      <c r="O4" s="81">
         <v>72</v>
       </c>
-      <c r="P4" s="96">
+      <c r="P4" s="89">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
+      <c r="A5" s="49">
         <v>3</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="50">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="51">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="F5" s="87">
+      <c r="F5" s="80">
         <v>3</v>
       </c>
-      <c r="G5" s="88">
+      <c r="G5" s="81">
         <v>4.7E-2</v>
       </c>
-      <c r="H5" s="89">
+      <c r="H5" s="82">
         <f t="shared" si="1"/>
         <v>0.14100000000000001</v>
       </c>
-      <c r="J5" s="87">
+      <c r="J5" s="80">
         <v>3</v>
       </c>
-      <c r="K5" s="88">
+      <c r="K5" s="81">
         <v>504</v>
       </c>
-      <c r="L5" s="96">
+      <c r="L5" s="89">
         <f t="shared" si="2"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="N5" s="87">
+      <c r="N5" s="80">
         <v>3</v>
       </c>
-      <c r="O5" s="88">
+      <c r="O5" s="81">
         <v>504</v>
       </c>
-      <c r="P5" s="96">
+      <c r="P5" s="89">
         <f t="shared" si="3"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+      <c r="A6" s="49">
         <v>4</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="50">
         <v>0.01</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="51">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="F6" s="87">
+      <c r="F6" s="80">
         <v>4</v>
       </c>
-      <c r="G6" s="88">
+      <c r="G6" s="81">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="H6" s="89">
+      <c r="H6" s="82">
         <f t="shared" si="1"/>
         <v>0.20400000000000001</v>
       </c>
-      <c r="J6" s="87">
+      <c r="J6" s="80">
         <v>4</v>
       </c>
-      <c r="K6" s="88">
+      <c r="K6" s="81">
         <v>720</v>
       </c>
-      <c r="L6" s="96">
+      <c r="L6" s="89">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="N6" s="87">
+      <c r="N6" s="80">
         <v>4</v>
       </c>
-      <c r="O6" s="88">
+      <c r="O6" s="81">
         <v>720</v>
       </c>
-      <c r="P6" s="96">
+      <c r="P6" s="89">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
+      <c r="A7" s="49">
         <v>5</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="50">
         <v>0.03</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="51">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="F7" s="87">
+      <c r="F7" s="80">
         <v>5</v>
       </c>
-      <c r="G7" s="88">
+      <c r="G7" s="81">
         <v>0.2</v>
       </c>
-      <c r="H7" s="89">
+      <c r="H7" s="82">
         <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="J7" s="87">
+      <c r="J7" s="80">
         <v>5</v>
       </c>
-      <c r="K7" s="88">
+      <c r="K7" s="81">
         <v>2160</v>
       </c>
-      <c r="L7" s="96">
+      <c r="L7" s="89">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="N7" s="87">
+      <c r="N7" s="80">
         <v>5</v>
       </c>
-      <c r="O7" s="88">
+      <c r="O7" s="81">
         <v>2160</v>
       </c>
-      <c r="P7" s="96">
+      <c r="P7" s="89">
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+      <c r="A8" s="49">
         <v>6</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="50">
         <v>0.06</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="51">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="F8" s="87">
+      <c r="F8" s="80">
         <v>6</v>
       </c>
-      <c r="G8" s="88">
+      <c r="G8" s="81">
         <v>0.4</v>
       </c>
-      <c r="H8" s="89">
+      <c r="H8" s="82">
         <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="J8" s="87">
+      <c r="J8" s="80">
         <v>6</v>
       </c>
-      <c r="K8" s="88">
+      <c r="K8" s="81">
         <v>4320</v>
       </c>
-      <c r="L8" s="96">
+      <c r="L8" s="89">
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="N8" s="87">
+      <c r="N8" s="80">
         <v>6</v>
       </c>
-      <c r="O8" s="88">
+      <c r="O8" s="81">
         <v>4320</v>
       </c>
-      <c r="P8" s="96">
+      <c r="P8" s="89">
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
+      <c r="A9" s="49">
         <v>7</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="50">
         <v>0.1</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="51">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F9" s="87">
+      <c r="F9" s="80">
         <v>7</v>
       </c>
-      <c r="G9" s="88">
+      <c r="G9" s="81">
         <v>0.8</v>
       </c>
-      <c r="H9" s="89">
+      <c r="H9" s="82">
         <f t="shared" si="1"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="J9" s="87">
+      <c r="J9" s="80">
         <v>7</v>
       </c>
-      <c r="K9" s="88">
+      <c r="K9" s="81">
         <v>8640</v>
       </c>
-      <c r="L9" s="96">
+      <c r="L9" s="89">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="N9" s="87">
+      <c r="N9" s="80">
         <v>7</v>
       </c>
-      <c r="O9" s="88">
+      <c r="O9" s="81">
         <v>8640</v>
       </c>
-      <c r="P9" s="96">
+      <c r="P9" s="89">
         <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59">
+      <c r="A10" s="52">
         <v>8</v>
       </c>
-      <c r="B10" s="60">
+      <c r="B10" s="53">
         <v>0.17</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="54">
         <f t="shared" si="0"/>
         <v>3.4000000000000004</v>
       </c>
-      <c r="F10" s="90">
+      <c r="F10" s="83">
         <v>8</v>
       </c>
-      <c r="G10" s="91">
+      <c r="G10" s="84">
         <v>1</v>
       </c>
-      <c r="H10" s="92">
+      <c r="H10" s="85">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J10" s="90">
+      <c r="J10" s="83">
         <v>8</v>
       </c>
-      <c r="K10" s="91">
+      <c r="K10" s="84">
         <v>12600</v>
       </c>
-      <c r="L10" s="97">
+      <c r="L10" s="90">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="N10" s="90">
+      <c r="N10" s="83">
         <v>8</v>
       </c>
-      <c r="O10" s="91">
+      <c r="O10" s="84">
         <v>12600</v>
       </c>
-      <c r="P10" s="97">
+      <c r="P10" s="90">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="57"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
+      <c r="A14" s="49">
         <v>1</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="50">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="51">
         <f>$C$2*B14</f>
         <v>0.01</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="83" t="s">
+      <c r="F14" s="46"/>
+      <c r="G14" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="57">
         <v>2</v>
       </c>
-      <c r="J14" s="53"/>
-      <c r="K14" s="83" t="s">
+      <c r="J14" s="46"/>
+      <c r="K14" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="64">
+      <c r="L14" s="57">
         <v>3.5</v>
       </c>
-      <c r="N14" s="53"/>
-      <c r="O14" s="83" t="s">
+      <c r="N14" s="46"/>
+      <c r="O14" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="P14" s="64">
+      <c r="P14" s="57">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="56">
+      <c r="A15" s="49">
         <v>2</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="50">
         <v>1E-3</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="51">
         <f>$C$2*B15</f>
         <v>0.02</v>
       </c>
-      <c r="F15" s="84" t="s">
+      <c r="F15" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="85" t="s">
+      <c r="G15" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="86" t="s">
+      <c r="H15" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="84" t="s">
+      <c r="J15" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="85" t="s">
+      <c r="K15" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="86" t="s">
+      <c r="L15" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="84" t="s">
+      <c r="N15" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="O15" s="85" t="s">
+      <c r="O15" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="86" t="s">
+      <c r="P15" s="79" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59">
+      <c r="A16" s="52">
         <v>3</v>
       </c>
-      <c r="B16" s="60">
+      <c r="B16" s="53">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="54">
         <f>$C$2*B16</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="F16" s="87">
+      <c r="F16" s="80">
         <v>1</v>
       </c>
-      <c r="G16" s="88">
+      <c r="G16" s="81">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="H16" s="89">
+      <c r="H16" s="82">
         <f t="shared" ref="H16:H23" si="4">ROUND($H$14*G16,3)</f>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J16" s="87">
+      <c r="J16" s="80">
         <v>1</v>
       </c>
-      <c r="K16" s="88">
+      <c r="K16" s="81">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="L16" s="89">
+      <c r="L16" s="82">
         <f t="shared" ref="L16:L23" si="5">ROUND($L$14*K16,3)</f>
         <v>1.2E-2</v>
       </c>
-      <c r="N16" s="87">
+      <c r="N16" s="80">
         <v>1</v>
       </c>
-      <c r="O16" s="88">
+      <c r="O16" s="81">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="P16" s="89">
+      <c r="P16" s="82">
         <f t="shared" ref="P16:P23" si="6">ROUND($P$14*O16,3)</f>
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="87">
+      <c r="F17" s="80">
         <v>2</v>
       </c>
-      <c r="G17" s="88">
+      <c r="G17" s="81">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="H17" s="89">
+      <c r="H17" s="82">
         <f t="shared" si="4"/>
         <v>1.4E-2</v>
       </c>
-      <c r="J17" s="87">
+      <c r="J17" s="80">
         <v>2</v>
       </c>
-      <c r="K17" s="88">
+      <c r="K17" s="81">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="L17" s="89">
+      <c r="L17" s="82">
         <f t="shared" si="5"/>
         <v>2.4E-2</v>
       </c>
-      <c r="N17" s="87">
+      <c r="N17" s="80">
         <v>2</v>
       </c>
-      <c r="O17" s="88">
+      <c r="O17" s="81">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="P17" s="89">
+      <c r="P17" s="82">
         <f t="shared" si="6"/>
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="47">
         <v>20</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="F18" s="87">
+      <c r="D18" s="57"/>
+      <c r="F18" s="80">
         <v>3</v>
       </c>
-      <c r="G18" s="88">
+      <c r="G18" s="81">
         <v>4.7E-2</v>
       </c>
-      <c r="H18" s="89">
+      <c r="H18" s="82">
         <f t="shared" si="4"/>
         <v>9.4E-2</v>
       </c>
-      <c r="J18" s="87">
+      <c r="J18" s="80">
         <v>3</v>
       </c>
-      <c r="K18" s="88">
+      <c r="K18" s="81">
         <v>4.7E-2</v>
       </c>
-      <c r="L18" s="89">
+      <c r="L18" s="82">
         <f t="shared" si="5"/>
         <v>0.16500000000000001</v>
       </c>
-      <c r="N18" s="87">
+      <c r="N18" s="80">
         <v>3</v>
       </c>
-      <c r="O18" s="88">
+      <c r="O18" s="81">
         <v>4.7E-2</v>
       </c>
-      <c r="P18" s="89">
+      <c r="P18" s="82">
         <f t="shared" si="6"/>
         <v>0.23499999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="56">
+      <c r="A19" s="49">
         <v>1</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="50">
         <v>0.02</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="50">
         <f>C21*B19</f>
         <v>0.1</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D19" s="51">
         <v>1.6</v>
       </c>
-      <c r="F19" s="87">
+      <c r="F19" s="80">
         <v>4</v>
       </c>
-      <c r="G19" s="88">
+      <c r="G19" s="81">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="H19" s="89">
+      <c r="H19" s="82">
         <f t="shared" si="4"/>
         <v>0.13600000000000001</v>
       </c>
-      <c r="J19" s="87">
+      <c r="J19" s="80">
         <v>4</v>
       </c>
-      <c r="K19" s="88">
+      <c r="K19" s="81">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="L19" s="89">
+      <c r="L19" s="82">
         <f t="shared" si="5"/>
         <v>0.23799999999999999</v>
       </c>
-      <c r="N19" s="87">
+      <c r="N19" s="80">
         <v>4</v>
       </c>
-      <c r="O19" s="88">
+      <c r="O19" s="81">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="P19" s="89">
+      <c r="P19" s="82">
         <f t="shared" si="6"/>
         <v>0.34</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
+      <c r="A20" s="49">
         <v>2</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="50">
         <v>0.1</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="50">
         <f>C21*B20</f>
         <v>0.5</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="51">
         <v>8</v>
       </c>
-      <c r="F20" s="87">
+      <c r="F20" s="80">
         <v>5</v>
       </c>
-      <c r="G20" s="88">
+      <c r="G20" s="81">
         <v>0.2</v>
       </c>
-      <c r="H20" s="89">
+      <c r="H20" s="82">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="J20" s="87">
+      <c r="J20" s="80">
         <v>5</v>
       </c>
-      <c r="K20" s="88">
+      <c r="K20" s="81">
         <v>0.2</v>
       </c>
-      <c r="L20" s="89">
+      <c r="L20" s="82">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="N20" s="87">
+      <c r="N20" s="80">
         <v>5</v>
       </c>
-      <c r="O20" s="88">
+      <c r="O20" s="81">
         <v>0.2</v>
       </c>
-      <c r="P20" s="89">
+      <c r="P20" s="82">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="59">
+      <c r="A21" s="52">
         <v>3</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60">
+      <c r="B21" s="53"/>
+      <c r="C21" s="53">
         <f>C18*250/1000</f>
         <v>5</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="54">
         <v>80</v>
       </c>
-      <c r="F21" s="87">
+      <c r="F21" s="80">
         <v>6</v>
       </c>
-      <c r="G21" s="88">
+      <c r="G21" s="81">
         <v>0.4</v>
       </c>
-      <c r="H21" s="89">
+      <c r="H21" s="82">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="J21" s="87">
+      <c r="J21" s="80">
         <v>6</v>
       </c>
-      <c r="K21" s="88">
+      <c r="K21" s="81">
         <v>0.4</v>
       </c>
-      <c r="L21" s="89">
+      <c r="L21" s="82">
         <f t="shared" si="5"/>
         <v>1.4</v>
       </c>
-      <c r="N21" s="87">
+      <c r="N21" s="80">
         <v>6</v>
       </c>
-      <c r="O21" s="88">
+      <c r="O21" s="81">
         <v>0.4</v>
       </c>
-      <c r="P21" s="89">
+      <c r="P21" s="82">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F22" s="87">
+      <c r="F22" s="80">
         <v>7</v>
       </c>
-      <c r="G22" s="88">
+      <c r="G22" s="81">
         <v>0.8</v>
       </c>
-      <c r="H22" s="89">
+      <c r="H22" s="82">
         <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
-      <c r="J22" s="87">
+      <c r="J22" s="80">
         <v>7</v>
       </c>
-      <c r="K22" s="88">
+      <c r="K22" s="81">
         <v>0.8</v>
       </c>
-      <c r="L22" s="89">
+      <c r="L22" s="82">
         <f t="shared" si="5"/>
         <v>2.8</v>
       </c>
-      <c r="N22" s="87">
+      <c r="N22" s="80">
         <v>7</v>
       </c>
-      <c r="O22" s="88">
+      <c r="O22" s="81">
         <v>0.8</v>
       </c>
-      <c r="P22" s="89">
+      <c r="P22" s="82">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="90">
+      <c r="F23" s="83">
         <v>8</v>
       </c>
-      <c r="G23" s="91">
+      <c r="G23" s="84">
         <v>1</v>
       </c>
-      <c r="H23" s="92">
+      <c r="H23" s="85">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J23" s="90">
+      <c r="J23" s="83">
         <v>8</v>
       </c>
-      <c r="K23" s="91">
+      <c r="K23" s="84">
         <v>1</v>
       </c>
-      <c r="L23" s="92">
+      <c r="L23" s="85">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
-      <c r="N23" s="90">
+      <c r="N23" s="83">
         <v>8</v>
       </c>
-      <c r="O23" s="91">
+      <c r="O23" s="84">
         <v>1</v>
       </c>
-      <c r="P23" s="92">
+      <c r="P23" s="85">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
-      <c r="F25" s="62" t="s">
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
+      <c r="F25" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="64"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="57"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
-      <c r="F26" s="56" t="s">
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
+      <c r="F26" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="58"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="65">
-        <v>3869</v>
-      </c>
-      <c r="F27" s="56" t="s">
+      <c r="C27" s="50"/>
+      <c r="D27" s="58">
+        <v>120</v>
+      </c>
+      <c r="F27" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="57"/>
-      <c r="H27" s="65">
+      <c r="G27" s="50"/>
+      <c r="H27" s="58">
         <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58">
+      <c r="C28" s="50"/>
+      <c r="D28" s="51">
         <f>D27/1000</f>
-        <v>3.8690000000000002</v>
-      </c>
-      <c r="F28" s="56" t="s">
+        <v>0.12</v>
+      </c>
+      <c r="F28" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="57"/>
-      <c r="H28" s="58">
+      <c r="G28" s="50"/>
+      <c r="H28" s="51">
         <f>H27/1000</f>
         <v>0.13</v>
       </c>
@@ -4376,18 +4400,18 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="65">
+      <c r="C29" s="50"/>
+      <c r="D29" s="58">
         <v>15.041</v>
       </c>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="65">
+      <c r="G29" s="50"/>
+      <c r="H29" s="58">
         <v>15.041</v>
       </c>
       <c r="N29" t="s">
@@ -4399,19 +4423,19 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58">
+      <c r="C30" s="50"/>
+      <c r="D30" s="51">
         <f>D29/3600</f>
         <v>4.1780555555555555E-3</v>
       </c>
-      <c r="F30" s="56" t="s">
+      <c r="F30" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="57"/>
-      <c r="H30" s="58">
+      <c r="G30" s="50"/>
+      <c r="H30" s="51">
         <f>H29/3600</f>
         <v>4.1780555555555555E-3</v>
       </c>
@@ -4421,52 +4445,52 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="65">
+      <c r="C31" s="50"/>
+      <c r="D31" s="58">
         <v>0.5</v>
       </c>
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="65">
+      <c r="G31" s="50"/>
+      <c r="H31" s="58">
         <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="58">
+      <c r="C32" s="50"/>
+      <c r="D32" s="51">
         <f>D30*D31</f>
         <v>2.0890277777777778E-3</v>
       </c>
-      <c r="F32" s="56" t="s">
+      <c r="F32" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="57"/>
-      <c r="H32" s="58">
+      <c r="G32" s="50"/>
+      <c r="H32" s="51">
         <f>H30*H31</f>
         <v>2.0890277777777778E-3</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="66">
+      <c r="C33" s="50"/>
+      <c r="D33" s="59">
         <v>11136000</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F33" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="57"/>
-      <c r="H33" s="66">
+      <c r="G33" s="50"/>
+      <c r="H33" s="59">
         <v>5184000</v>
       </c>
       <c r="N33" t="s">
@@ -4478,37 +4502,37 @@
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58">
+      <c r="C34" s="50"/>
+      <c r="D34" s="51">
         <f>D33/360/3600</f>
         <v>8.5925925925925917</v>
       </c>
-      <c r="F34" s="56" t="s">
+      <c r="F34" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="58">
+      <c r="G34" s="50"/>
+      <c r="H34" s="51">
         <f>H33/360/3600</f>
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="58">
+      <c r="C35" s="50"/>
+      <c r="D35" s="51">
         <f>D28*D32*3600</f>
-        <v>29.096814500000001</v>
-      </c>
-      <c r="F35" s="56" t="s">
+        <v>0.90246000000000004</v>
+      </c>
+      <c r="F35" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="57"/>
-      <c r="H35" s="58">
+      <c r="G35" s="50"/>
+      <c r="H35" s="51">
         <f>H28*H32*3600</f>
         <v>0.9776649999999999</v>
       </c>
@@ -4527,19 +4551,19 @@
       </c>
     </row>
     <row r="36" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="61">
+      <c r="C36" s="53"/>
+      <c r="D36" s="54">
         <f>D34*D35</f>
-        <v>250.01707274074073</v>
-      </c>
-      <c r="F36" s="59" t="s">
+        <v>7.7544711111111102</v>
+      </c>
+      <c r="F36" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="60"/>
-      <c r="H36" s="61">
+      <c r="G36" s="53"/>
+      <c r="H36" s="54">
         <f>H34*H35</f>
         <v>3.9106599999999996</v>
       </c>
@@ -4550,13 +4574,13 @@
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H39" s="62" t="s">
+      <c r="H39" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="67" t="s">
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="60" t="s">
         <v>37</v>
       </c>
       <c r="N39" t="s">
@@ -4582,22 +4606,22 @@
       <c r="F40" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="68" t="s">
+      <c r="H40" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="I40" s="57">
+      <c r="I40" s="50">
         <f>HEX2DEC(MID(H40,1,2)) * POWER(16,0)</f>
         <v>183</v>
       </c>
-      <c r="J40" s="57">
+      <c r="J40" s="50">
         <f>HEX2DEC(MID(H40,3,2))* POWER(16,2)</f>
         <v>256</v>
       </c>
-      <c r="K40" s="57">
+      <c r="K40" s="50">
         <f>HEX2DEC(MID(H40,5,2))* POWER(16,4)</f>
         <v>0</v>
       </c>
-      <c r="L40" s="58">
+      <c r="L40" s="51">
         <f>I40+J40+K40</f>
         <v>439</v>
       </c>
@@ -4626,27 +4650,27 @@
       </c>
       <c r="D41">
         <f>D28*D32*3600</f>
-        <v>29.096814500000001</v>
+        <v>0.90246000000000004</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="68" t="s">
+      <c r="H41" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I41" s="57">
+      <c r="I41" s="50">
         <f t="shared" ref="I41:I44" si="7">HEX2DEC(MID(H41,1,2)) * POWER(16,0)</f>
         <v>239</v>
       </c>
-      <c r="J41" s="57">
+      <c r="J41" s="50">
         <f t="shared" ref="J41:J44" si="8">HEX2DEC(MID(H41,3,2))* POWER(16,2)</f>
         <v>12544</v>
       </c>
-      <c r="K41" s="57">
+      <c r="K41" s="50">
         <f t="shared" ref="K41:K44" si="9">HEX2DEC(MID(H41,5,2))* POWER(16,4)</f>
         <v>6619136</v>
       </c>
-      <c r="L41" s="58">
+      <c r="L41" s="51">
         <f t="shared" ref="L41:L44" si="10">I41+J41+K41</f>
         <v>6631919</v>
       </c>
@@ -4662,22 +4686,22 @@
       <c r="E42" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="68" t="s">
+      <c r="H42" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="I42" s="57">
+      <c r="I42" s="50">
         <f t="shared" si="7"/>
         <v>183</v>
       </c>
-      <c r="J42" s="57">
+      <c r="J42" s="50">
         <f t="shared" si="8"/>
         <v>256</v>
       </c>
-      <c r="K42" s="57">
+      <c r="K42" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L42" s="58">
+      <c r="L42" s="51">
         <f t="shared" si="10"/>
         <v>439</v>
       </c>
@@ -4688,27 +4712,27 @@
       </c>
       <c r="D43">
         <f>D41*D42</f>
-        <v>250.01707274074073</v>
+        <v>7.7544711111111102</v>
       </c>
       <c r="E43" t="s">
         <v>19</v>
       </c>
-      <c r="H43" s="68" t="s">
+      <c r="H43" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="I43" s="57">
+      <c r="I43" s="50">
         <f t="shared" si="7"/>
         <v>155</v>
       </c>
-      <c r="J43" s="57">
+      <c r="J43" s="50">
         <f t="shared" si="8"/>
         <v>58624</v>
       </c>
-      <c r="K43" s="57">
+      <c r="K43" s="50">
         <f t="shared" si="9"/>
         <v>8323072</v>
       </c>
-      <c r="L43" s="58">
+      <c r="L43" s="51">
         <f t="shared" si="10"/>
         <v>8381851</v>
       </c>
@@ -4719,35 +4743,35 @@
       </c>
       <c r="D44">
         <f>ROUNDUP(D43,0)</f>
-        <v>251</v>
-      </c>
-      <c r="H44" s="69"/>
-      <c r="I44" s="60">
+        <v>8</v>
+      </c>
+      <c r="H44" s="62"/>
+      <c r="I44" s="53">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J44" s="60">
+      <c r="J44" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K44" s="60">
+      <c r="K44" s="53">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L44" s="61">
+      <c r="L44" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H46" s="70" t="s">
+      <c r="H46" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="64"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="57"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -4759,16 +4783,16 @@
       <c r="F47" t="s">
         <v>42</v>
       </c>
-      <c r="H47" s="68">
+      <c r="H47" s="61">
         <v>439</v>
       </c>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57" t="str">
+      <c r="I47" s="50"/>
+      <c r="J47" s="50" t="str">
         <f>DEC2HEX(H47,6)</f>
         <v>0001B7</v>
       </c>
-      <c r="K47" s="57"/>
-      <c r="L47" s="71" t="str">
+      <c r="K47" s="50"/>
+      <c r="L47" s="64" t="str">
         <f>MID(J47,5,2) &amp; MID(J47,3,2) &amp; MID(J47,1,2)</f>
         <v>B70100</v>
       </c>
@@ -4784,16 +4808,16 @@
       <c r="F48" t="s">
         <v>40</v>
       </c>
-      <c r="H48" s="68">
+      <c r="H48" s="61">
         <v>502</v>
       </c>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57" t="str">
+      <c r="I48" s="50"/>
+      <c r="J48" s="50" t="str">
         <f t="shared" ref="J48:J50" si="11">DEC2HEX(H48,6)</f>
         <v>0001F6</v>
       </c>
-      <c r="K48" s="57"/>
-      <c r="L48" s="71" t="str">
+      <c r="K48" s="50"/>
+      <c r="L48" s="64" t="str">
         <f t="shared" ref="L48:L50" si="12">MID(J48,5,2) &amp; MID(J48,3,2) &amp; MID(J48,1,2)</f>
         <v>F60100</v>
       </c>
@@ -4804,21 +4828,21 @@
       </c>
       <c r="D49">
         <f>D41/D48*1000</f>
-        <v>3869</v>
+        <v>120</v>
       </c>
       <c r="F49" t="s">
         <v>41</v>
       </c>
-      <c r="H49" s="68">
+      <c r="H49" s="61">
         <v>1119</v>
       </c>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57" t="str">
+      <c r="I49" s="50"/>
+      <c r="J49" s="50" t="str">
         <f t="shared" si="11"/>
         <v>00045F</v>
       </c>
-      <c r="K49" s="57"/>
-      <c r="L49" s="71" t="str">
+      <c r="K49" s="50"/>
+      <c r="L49" s="64" t="str">
         <f t="shared" si="12"/>
         <v>5F0400</v>
       </c>
@@ -4829,18 +4853,18 @@
       </c>
       <c r="D50">
         <f>D49*D47</f>
-        <v>5000.3414548148139</v>
-      </c>
-      <c r="H50" s="69">
+        <v>155.0894222222222</v>
+      </c>
+      <c r="H50" s="62">
         <v>1118</v>
       </c>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60" t="str">
+      <c r="I50" s="53"/>
+      <c r="J50" s="53" t="str">
         <f t="shared" si="11"/>
         <v>00045E</v>
       </c>
-      <c r="K50" s="60"/>
-      <c r="L50" s="72" t="str">
+      <c r="K50" s="53"/>
+      <c r="L50" s="65" t="str">
         <f t="shared" si="12"/>
         <v>5E0400</v>
       </c>
@@ -4851,11 +4875,11 @@
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B52" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="55">
+      <c r="B52" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="C52" s="47"/>
+      <c r="D52" s="48">
         <v>1</v>
       </c>
       <c r="F52" t="s">
@@ -4867,11 +4891,11 @@
       </c>
     </row>
     <row r="53" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="56" t="s">
-        <v>275</v>
-      </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="58">
+      <c r="B53" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="50"/>
+      <c r="D53" s="51">
         <f>D52/D34</f>
         <v>0.1163793103448276</v>
       </c>
@@ -4888,90 +4912,90 @@
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B54" s="56"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="58">
+      <c r="B54" s="49"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="51">
         <f>D53/3600</f>
         <v>3.2327586206896553E-5</v>
       </c>
-      <c r="H54" s="62" t="s">
+      <c r="H54" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="64"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="57"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B55" s="56"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="58">
+      <c r="B55" s="49"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="51">
         <f>D54/D32</f>
         <v>1.5474943201226991E-2</v>
       </c>
-      <c r="H55" s="73" t="s">
+      <c r="H55" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="I55" s="74">
+      <c r="I55" s="67">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J55" s="57"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="58"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="51"/>
       <c r="O55">
         <f>1000* 0.116379310344827/(7.5205 / 100) * 15.014</f>
         <v>23234.079722322087</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="C56" s="60"/>
-      <c r="D56" s="61">
+      <c r="B56" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54">
         <f>D55*1000</f>
         <v>15.474943201226992</v>
       </c>
-      <c r="H56" s="56" t="s">
+      <c r="H56" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="I56" s="57"/>
-      <c r="J56" s="75">
+      <c r="I56" s="50"/>
+      <c r="J56" s="68">
         <f>128 * 0.000072921158452214</f>
         <v>9.3339082818833918E-3</v>
       </c>
-      <c r="K56" s="57"/>
-      <c r="L56" s="58"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="51"/>
     </row>
     <row r="57" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H57" s="56"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="76" t="s">
+      <c r="H57" s="49"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="K57" s="57"/>
-      <c r="L57" s="77" t="s">
+      <c r="K57" s="50"/>
+      <c r="L57" s="70" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="64"/>
-      <c r="H58" s="56" t="s">
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="57"/>
+      <c r="H58" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57">
+      <c r="I58" s="50"/>
+      <c r="J58" s="50">
         <f>IF(I55&gt;J56, I55/16,0)</f>
         <v>0</v>
       </c>
-      <c r="K58" s="57"/>
-      <c r="L58" s="58">
+      <c r="K58" s="50"/>
+      <c r="L58" s="51">
         <f>IF(I55&gt;J56, 0,I55)</f>
         <v>3.0000000000000001E-3</v>
       </c>
@@ -4988,25 +5012,25 @@
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B59" s="56"/>
-      <c r="C59" s="57" t="s">
+      <c r="B59" s="49"/>
+      <c r="C59" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="82">
+      <c r="D59" s="75">
         <v>0.84299999999999997</v>
       </c>
-      <c r="E59" s="57"/>
-      <c r="F59" s="58"/>
-      <c r="H59" s="56" t="s">
+      <c r="E59" s="50"/>
+      <c r="F59" s="51"/>
+      <c r="H59" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="I59" s="57"/>
-      <c r="J59" s="57" t="e">
+      <c r="I59" s="50"/>
+      <c r="J59" s="50" t="e">
         <f>1/J58</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K59" s="57"/>
-      <c r="L59" s="58">
+      <c r="K59" s="50"/>
+      <c r="L59" s="51">
         <f>1/L58</f>
         <v>333.33333333333331</v>
       </c>
@@ -5015,28 +5039,28 @@
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B60" s="56"/>
-      <c r="C60" s="57" t="s">
+      <c r="B60" s="49"/>
+      <c r="C60" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="82">
+      <c r="D60" s="75">
         <v>0.99</v>
       </c>
-      <c r="E60" s="57"/>
-      <c r="F60" s="58">
+      <c r="E60" s="50"/>
+      <c r="F60" s="51">
         <f>(D60*D59)</f>
         <v>0.83456999999999992</v>
       </c>
-      <c r="H60" s="56" t="s">
+      <c r="H60" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57" t="e">
+      <c r="I60" s="50"/>
+      <c r="J60" s="50" t="e">
         <f>J59 * 0.0320128742779054</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K60" s="57"/>
-      <c r="L60" s="58">
+      <c r="K60" s="50"/>
+      <c r="L60" s="51">
         <f>L59 * 0.0320128742779054</f>
         <v>10.670958092635132</v>
       </c>
@@ -5046,28 +5070,28 @@
       </c>
     </row>
     <row r="61" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="56"/>
-      <c r="C61" s="57" t="s">
+      <c r="B61" s="49"/>
+      <c r="C61" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="82">
+      <c r="D61" s="75">
         <v>45.995632171630803</v>
       </c>
-      <c r="E61" s="57"/>
-      <c r="F61" s="58">
+      <c r="E61" s="50"/>
+      <c r="F61" s="51">
         <f>COS(D61)</f>
         <v>-0.42823497815851352</v>
       </c>
-      <c r="H61" s="59" t="s">
+      <c r="H61" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60" t="e">
+      <c r="I61" s="53"/>
+      <c r="J61" s="53" t="e">
         <f>TRUNC(J60,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K61" s="60"/>
-      <c r="L61" s="61">
+      <c r="K61" s="53"/>
+      <c r="L61" s="54">
         <f>TRUNC(L60,0)</f>
         <v>10</v>
       </c>
@@ -5077,34 +5101,34 @@
       </c>
     </row>
     <row r="62" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="56"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57">
+      <c r="B62" s="49"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50">
         <f>(D60*D59)/COS(D61)</f>
         <v>-1.9488599543848548</v>
       </c>
-      <c r="E62" s="57"/>
-      <c r="F62" s="58"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="51"/>
       <c r="O62">
         <f>O59/O58</f>
         <v>0.11637931034482758</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B63" s="56"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="58"/>
-      <c r="H63" s="78" t="s">
+      <c r="B63" s="49"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="51"/>
+      <c r="H63" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I63" s="79">
+      <c r="I63" s="72">
         <v>5</v>
       </c>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="64"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="57"/>
       <c r="O63">
         <f xml:space="preserve"> 250 * O59/O58</f>
         <v>29.094827586206897</v>
@@ -5115,105 +5139,105 @@
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="56"/>
-      <c r="C64" s="57" t="s">
+      <c r="B64" s="49"/>
+      <c r="C64" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="57">
+      <c r="D64" s="50">
         <v>12.8916</v>
       </c>
-      <c r="E64" s="57"/>
-      <c r="F64" s="58">
+      <c r="E64" s="50"/>
+      <c r="F64" s="51">
         <f>(D65*D64)</f>
         <v>0.4769892</v>
       </c>
-      <c r="H64" s="80" t="s">
+      <c r="H64" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="I64" s="57"/>
+      <c r="I64" s="50"/>
       <c r="J64" s="19">
         <f>128 * 0.000072921158452214</f>
         <v>9.3339082818833918E-3</v>
       </c>
-      <c r="K64" s="57"/>
-      <c r="L64" s="58"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="51"/>
     </row>
     <row r="65" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="59"/>
-      <c r="C65" s="60" t="s">
+      <c r="B65" s="52"/>
+      <c r="C65" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="60">
+      <c r="D65" s="53">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E65" s="60"/>
-      <c r="F65" s="61">
+      <c r="E65" s="53"/>
+      <c r="F65" s="54">
         <f>F64  * 0.6866</f>
         <v>0.32750078471999999</v>
       </c>
-      <c r="H65" s="56" t="s">
+      <c r="H65" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="I65" s="57"/>
-      <c r="J65" s="57">
+      <c r="I65" s="50"/>
+      <c r="J65" s="50">
         <f xml:space="preserve"> I63/0.0320128742779054</f>
         <v>156.18716259573398</v>
       </c>
-      <c r="K65" s="57"/>
-      <c r="L65" s="58">
+      <c r="K65" s="50"/>
+      <c r="L65" s="51">
         <f xml:space="preserve"> I63/0.0320128742779054</f>
         <v>156.18716259573398</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H66" s="56" t="s">
+      <c r="H66" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="I66" s="57"/>
+      <c r="I66" s="50"/>
       <c r="J66" s="19">
         <f>1/J65</f>
         <v>6.4025748555810794E-3</v>
       </c>
-      <c r="K66" s="57"/>
-      <c r="L66" s="58">
+      <c r="K66" s="50"/>
+      <c r="L66" s="51">
         <f>1/L65</f>
         <v>6.4025748555810794E-3</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H67" s="80" t="s">
+      <c r="H67" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="I67" s="57"/>
+      <c r="I67" s="50"/>
       <c r="J67" s="19">
         <f>16/J65</f>
         <v>0.10244119768929727</v>
       </c>
-      <c r="K67" s="57"/>
-      <c r="L67" s="58"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="51"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H68" s="56"/>
-      <c r="I68" s="57"/>
-      <c r="J68" s="76" t="s">
+      <c r="H68" s="49"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="K68" s="57"/>
-      <c r="L68" s="77" t="s">
+      <c r="K68" s="50"/>
+      <c r="L68" s="70" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="69" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H69" s="81" t="s">
+      <c r="H69" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="I69" s="60"/>
-      <c r="J69" s="60">
+      <c r="I69" s="53"/>
+      <c r="J69" s="53">
         <f>IF(J67&gt;J64,16/J65,0)</f>
         <v>0.10244119768929727</v>
       </c>
-      <c r="K69" s="60"/>
-      <c r="L69" s="61">
+      <c r="K69" s="53"/>
+      <c r="L69" s="54">
         <f>IF(L66&lt;J64,L66,0)</f>
         <v>6.4025748555810794E-3</v>
       </c>
@@ -5284,10 +5308,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -5324,7 +5348,7 @@
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I16" t="s">
         <v>150</v>
@@ -5346,9 +5370,9 @@
       <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="6" t="str">
+      <c r="C17" s="6">
         <f>'Synta Data'!F2</f>
-        <v>11,136,000</v>
+        <v>11136000</v>
       </c>
       <c r="D17" s="6" t="str">
         <f>'Synta Data'!F4</f>
@@ -5373,9 +5397,9 @@
         <f>'Synta Data'!F4</f>
         <v>56,738</v>
       </c>
-      <c r="K17" t="str">
+      <c r="K17">
         <f>'Synta Data'!F2</f>
-        <v>11,136,000</v>
+        <v>11136000</v>
       </c>
       <c r="L17">
         <f>K17 / (2*PI())</f>
@@ -6667,7 +6691,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6708,7 +6732,7 @@
         <v>162</v>
       </c>
       <c r="J1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -6727,17 +6751,17 @@
       <c r="E2" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="91">
+        <v>11136000</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>169</v>
-      </c>
       <c r="I2" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J2">
         <v>2073600</v>
@@ -6745,31 +6769,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="25" t="s">
         <v>172</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>173</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>166</v>
       </c>
       <c r="F3" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="25" t="s">
-        <v>176</v>
-      </c>
       <c r="I3" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -6777,10 +6801,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>177</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>178</v>
       </c>
       <c r="C4" s="25">
         <v>64935</v>
@@ -6792,16 +6816,16 @@
         <v>166</v>
       </c>
       <c r="F4" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="H4" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="H4" s="25" t="s">
-        <v>181</v>
-      </c>
       <c r="I4" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J4">
         <v>16000000</v>
@@ -6809,7 +6833,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" s="25">
         <v>16</v>
@@ -6841,13 +6865,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="C6" s="25" t="s">
         <v>184</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>185</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>166</v>
@@ -6856,16 +6880,16 @@
         <v>166</v>
       </c>
       <c r="F6" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="G6" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="I6" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J6">
         <v>24541</v>
@@ -6873,36 +6897,36 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>189</v>
-      </c>
       <c r="C7" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>166</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="25">
         <v>200</v>
@@ -6931,7 +6955,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" s="25">
         <v>64</v>
@@ -6960,36 +6984,36 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="C10" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>194</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>195</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>166</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G10" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="H10" s="25" t="s">
-        <v>195</v>
-      </c>
       <c r="I10" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="25">
         <v>705</v>
@@ -7018,13 +7042,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="C12" s="25" t="s">
         <v>198</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>199</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>166</v>
@@ -7033,21 +7057,21 @@
         <v>166</v>
       </c>
       <c r="F12" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="H12" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>202</v>
-      </c>
       <c r="I12" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B13" s="25">
         <v>180</v>
@@ -7076,13 +7100,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>205</v>
-      </c>
       <c r="C14" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>166</v>
@@ -7091,21 +7115,21 @@
         <v>166</v>
       </c>
       <c r="F14" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="H14" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="H14" s="25" t="s">
-        <v>208</v>
-      </c>
       <c r="I14" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B15" s="25">
         <v>783.33299999999997</v>
@@ -7126,7 +7150,7 @@
         <v>800</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I15" s="25">
         <v>800</v>
@@ -7134,7 +7158,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" s="25">
         <v>9.1914890000000007</v>
@@ -7163,7 +7187,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B17" s="25">
         <v>0.14361699999999999</v>
@@ -7192,7 +7216,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B18" s="25">
         <v>6.9629630000000002</v>
@@ -7221,48 +7245,48 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="C19" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="25" t="s">
+      <c r="G19" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="H19" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="H19" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="I19" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F20" s="25">
         <v>73.536000000000001</v>
@@ -7274,53 +7298,53 @@
         <v>251.94399999999999</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F21" s="25">
         <v>631.86599999999999</v>
       </c>
       <c r="G21" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="H21" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="H21" s="25" t="s">
-        <v>222</v>
-      </c>
       <c r="I21" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F22" s="25">
         <v>2</v>
@@ -7329,7 +7353,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I22" s="25">
         <v>2</v>
@@ -7337,19 +7361,19 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F23" s="25">
         <v>100</v>
@@ -7366,19 +7390,19 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F24" s="25">
         <v>256</v>
@@ -7395,19 +7419,19 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F25" s="25">
         <v>29.792999999999999</v>
@@ -7424,13 +7448,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>229</v>
-      </c>
       <c r="C26" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>166</v>
@@ -7439,27 +7463,27 @@
         <v>166</v>
       </c>
       <c r="F26" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="H26" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="G26" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>231</v>
-      </c>
       <c r="I26" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>166</v>
@@ -7468,21 +7492,21 @@
         <v>166</v>
       </c>
       <c r="F27" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="H27" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="H27" s="25" t="s">
-        <v>235</v>
-      </c>
       <c r="I27" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J28">
         <v>664846</v>
@@ -7495,10 +7519,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I24"/>
+  <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7511,7 +7535,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E2" s="28">
         <v>15.041</v>
@@ -7525,13 +7549,13 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E3" s="27">
         <v>3600</v>
       </c>
       <c r="G3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I3" s="30">
         <f>I2/1000</f>
@@ -7540,14 +7564,14 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E4" s="27">
         <f>E2/E3</f>
         <v>4.1780555555555555E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I4" s="27">
         <f>I3*E4*E3</f>
@@ -7556,13 +7580,13 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E5" s="27">
         <v>360</v>
       </c>
       <c r="G5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I5" s="27">
         <f>I4/3600</f>
@@ -7571,7 +7595,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E7" s="27">
         <v>12960000</v>
@@ -7579,7 +7603,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E8" s="27">
         <f>E7/E5/E3</f>
@@ -7589,7 +7613,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E9" s="27">
         <f>E8*I4</f>
@@ -7620,7 +7644,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E15" s="27">
         <v>86164.091</v>
@@ -7637,7 +7661,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E17" s="27">
         <f>E5/E15</f>
@@ -7655,7 +7679,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E21" s="27">
         <f>E7/360/60/60</f>
@@ -7667,7 +7691,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E22" s="27">
         <f>E21*E17</f>
@@ -7688,6 +7712,64 @@
       <c r="E24" s="27">
         <f>E22*60*60*24</f>
         <v>3609.8564540070415</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="92" t="s">
+        <v>283</v>
+      </c>
+      <c r="C27" s="92"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>278</v>
+      </c>
+      <c r="E28" s="27">
+        <v>11136000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>277</v>
+      </c>
+      <c r="E29" s="27">
+        <f>2 * PI()/E28</f>
+        <v>5.6422281853264959E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>279</v>
+      </c>
+      <c r="E31" s="27">
+        <v>10552964</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>280</v>
+      </c>
+      <c r="E32" s="27">
+        <f>E31-8388608</f>
+        <v>2164356</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>281</v>
+      </c>
+      <c r="E33" s="27">
+        <f>E32*E29</f>
+        <v>1.2211790426280513</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>282</v>
+      </c>
+      <c r="E35" s="27">
+        <f>180 / PI() * E33</f>
+        <v>69.968405172413782</v>
       </c>
     </row>
   </sheetData>
@@ -7717,36 +7799,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="A1" s="93" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G5" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E6" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G6" s="34">
         <v>3</v>
@@ -7759,10 +7841,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E7" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G7" s="34">
         <v>48</v>
@@ -7771,10 +7853,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G8" s="34">
         <v>23</v>
@@ -7786,10 +7868,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E9" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G9" s="34">
         <v>45</v>
@@ -7798,10 +7880,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G10" s="34">
         <v>-12</v>
@@ -7813,10 +7895,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G11" s="34">
         <v>-21</v>
@@ -7828,31 +7910,31 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="F12" t="s">
         <v>254</v>
       </c>
-      <c r="F12" t="s">
-        <v>255</v>
-      </c>
       <c r="G12" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H12" s="32">
         <v>42.666666669999998</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="51">
+      <c r="C14" s="98">
         <v>4</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E14" s="31">
         <f>J14*G14+J15*H14</f>
         <v>-0.2</v>
       </c>
-      <c r="F14" s="49" t="s">
-        <v>255</v>
+      <c r="F14" s="96" t="s">
+        <v>254</v>
       </c>
       <c r="G14" s="36">
         <f>TAN(G9)*SIN(H8)-TAN(G7)*SIN(H6)</f>
@@ -7862,8 +7944,8 @@
         <f>COS(H12)*(TAN(G7)*COS(H6)-TAN(G9)*COS(H8))</f>
         <v>-0.18392326893206981</v>
       </c>
-      <c r="I14" s="50" t="s">
-        <v>256</v>
+      <c r="I14" s="97" t="s">
+        <v>255</v>
       </c>
       <c r="J14" s="38">
         <f>E19</f>
@@ -7871,15 +7953,15 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="51"/>
+      <c r="C15" s="98"/>
       <c r="D15" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E15" s="31">
         <f>J14*G15+J15*H15</f>
         <v>-0.35000000000000003</v>
       </c>
-      <c r="F15" s="49"/>
+      <c r="F15" s="96"/>
       <c r="G15" s="36">
         <f>COS(H8) - COS(H6)</f>
         <v>0.31376593904209982</v>
@@ -7888,7 +7970,7 @@
         <f>COS(H12)*(SIN(H8)-SIN(H6))</f>
         <v>-0.35208080814162784</v>
       </c>
-      <c r="I15" s="50"/>
+      <c r="I15" s="97"/>
       <c r="J15" s="38">
         <f>E20</f>
         <v>1.0014926977702903</v>
@@ -7900,10 +7982,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G17" s="40">
         <f>COS(H12)*((TAN(G7)+TAN(G9))*(1-COS(H6-H8)))</f>
@@ -7914,18 +7996,18 @@
       <c r="J17" s="2"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="52">
+      <c r="C19" s="99">
         <v>6</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E19" s="3">
         <f>J19*G19 + J20*H19</f>
         <v>8.3066963446058462E-3</v>
       </c>
-      <c r="F19" s="47" t="s">
-        <v>255</v>
+      <c r="F19" s="94" t="s">
+        <v>254</v>
       </c>
       <c r="G19" s="42">
         <f>(COS(H12)*(SIN(H8)-SIN(H6)))/ G17</f>
@@ -7935,8 +8017,8 @@
         <f>-COS(H12) * (TAN(G7)*COS(H6)-TAN(G9)*COS(H8)) / G17</f>
         <v>0.25281984458836537</v>
       </c>
-      <c r="I19" s="48" t="s">
-        <v>256</v>
+      <c r="I19" s="95" t="s">
+        <v>255</v>
       </c>
       <c r="J19" s="44">
         <f>H10</f>
@@ -7944,15 +8026,15 @@
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="52"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E20" s="3">
         <f>J19*G20+J20*H20</f>
         <v>1.0014926977702903</v>
       </c>
-      <c r="F20" s="47"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="42">
         <f>(COS(H6)-COS(H8)) / G17</f>
         <v>-0.43130081585840313</v>
@@ -7961,7 +8043,7 @@
         <f>(TAN(G9)*SIN(H8)-TAN(G7)*SIN(H6)) / G17</f>
         <v>-2.6149500988531704</v>
       </c>
-      <c r="I20" s="48"/>
+      <c r="I20" s="95"/>
       <c r="J20" s="44">
         <f>H11</f>
         <v>-0.35</v>
@@ -7969,7 +8051,7 @@
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D22" s="32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E22">
         <f>E14* 60</f>
@@ -7978,7 +8060,7 @@
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D23" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E23">
         <f>E15*60</f>

--- a/Resources/Misc/SyntaCalculations.xlsx
+++ b/Resources/Misc/SyntaCalculations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20085" windowHeight="10500" tabRatio="579"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20085" windowHeight="10500" tabRatio="579" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="298">
   <si>
     <t>degrees</t>
   </si>
@@ -882,13 +882,55 @@
   </si>
   <si>
     <t>Home Sensor</t>
+  </si>
+  <si>
+    <t>AZEQ5</t>
+  </si>
+  <si>
+    <t>low mode</t>
+  </si>
+  <si>
+    <t>high mode</t>
+  </si>
+  <si>
+    <t>AZEQ6</t>
+  </si>
+  <si>
+    <t>EQ6</t>
+  </si>
+  <si>
+    <t>milliseconds</t>
+  </si>
+  <si>
+    <t>backlash steps</t>
+  </si>
+  <si>
+    <t>milliseconds for lash</t>
+  </si>
+  <si>
+    <t>Average for 100</t>
+  </si>
+  <si>
+    <t>Average for 500</t>
+  </si>
+  <si>
+    <t>per/ms</t>
+  </si>
+  <si>
+    <t>Average per/ms</t>
+  </si>
+  <si>
+    <t>Using average per/ms</t>
+  </si>
+  <si>
+    <t>GOTO speeds at steps per ms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="hh:mm:ss.000"/>
     <numFmt numFmtId="165" formatCode="0.000000000"/>
     <numFmt numFmtId="166" formatCode="0.00000000000000"/>
@@ -896,6 +938,7 @@
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="0.00000000000"/>
     <numFmt numFmtId="170" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="172" formatCode="0.000000000000000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1161,7 +1204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1324,6 +1367,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1601,11 +1645,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="423329664"/>
-        <c:axId val="423331232"/>
+        <c:axId val="425155072"/>
+        <c:axId val="425150760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="423329664"/>
+        <c:axId val="425155072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1648,7 +1692,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423331232"/>
+        <c:crossAx val="425150760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1656,7 +1700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="423331232"/>
+        <c:axId val="425150760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1707,7 +1751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423329664"/>
+        <c:crossAx val="425155072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1908,11 +1952,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="423332016"/>
-        <c:axId val="423332408"/>
+        <c:axId val="425151544"/>
+        <c:axId val="425151936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="423332016"/>
+        <c:axId val="425151544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +1999,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423332408"/>
+        <c:crossAx val="425151936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1963,7 +2007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="423332408"/>
+        <c:axId val="425151936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2014,7 +2058,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423332016"/>
+        <c:crossAx val="425151544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3505,7 +3549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -5250,24 +5294,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
     <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5366,7 +5411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -5410,7 +5455,7 @@
         <v>439.00866367560849</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>161</v>
       </c>
@@ -5454,9 +5499,252 @@
         <v>1118.9748022073002</v>
       </c>
     </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" t="s">
+        <v>294</v>
+      </c>
+      <c r="H23" t="s">
+        <v>290</v>
+      </c>
+      <c r="I23" t="s">
+        <v>291</v>
+      </c>
+      <c r="J23" t="s">
+        <v>290</v>
+      </c>
+      <c r="K23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>284</v>
+      </c>
+      <c r="B24">
+        <v>40000</v>
+      </c>
+      <c r="C24">
+        <v>10000</v>
+      </c>
+      <c r="D24" s="100">
+        <f>C24/B24</f>
+        <v>0.25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>285</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <f>H24*D24</f>
+        <v>25</v>
+      </c>
+      <c r="J24">
+        <v>500</v>
+      </c>
+      <c r="K24">
+        <f>J24*D24</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25">
+        <v>40000</v>
+      </c>
+      <c r="C25">
+        <v>5000</v>
+      </c>
+      <c r="D25" s="100">
+        <f t="shared" ref="D25:D29" si="0">C25/B25</f>
+        <v>0.125</v>
+      </c>
+      <c r="E25" t="s">
+        <v>286</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25:I28" si="1">H25*D25</f>
+        <v>12.5</v>
+      </c>
+      <c r="J25">
+        <v>500</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25:K28" si="2">J25*D25</f>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>287</v>
+      </c>
+      <c r="B26">
+        <v>70000</v>
+      </c>
+      <c r="C26">
+        <v>9000</v>
+      </c>
+      <c r="D26" s="100">
+        <f t="shared" si="0"/>
+        <v>0.12857142857142856</v>
+      </c>
+      <c r="E26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>12.857142857142856</v>
+      </c>
+      <c r="J26">
+        <v>500</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>64.285714285714278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>287</v>
+      </c>
+      <c r="B27">
+        <v>65000</v>
+      </c>
+      <c r="C27">
+        <v>5000</v>
+      </c>
+      <c r="D27" s="100">
+        <f t="shared" si="0"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>286</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="J27">
+        <v>500</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>38.461538461538467</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B28">
+        <v>54000</v>
+      </c>
+      <c r="C28">
+        <v>10000</v>
+      </c>
+      <c r="D28" s="100">
+        <f t="shared" si="0"/>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>18.518518518518519</v>
+      </c>
+      <c r="J28">
+        <v>500</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>92.592592592592581</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>75000</v>
+      </c>
+      <c r="C29">
+        <v>8000</v>
+      </c>
+      <c r="D29" s="100">
+        <f t="shared" si="0"/>
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="H29" t="s">
+        <v>292</v>
+      </c>
+      <c r="I29">
+        <f>AVERAGE(I24:I28)</f>
+        <v>15.313593813593815</v>
+      </c>
+      <c r="J29" t="s">
+        <v>293</v>
+      </c>
+      <c r="K29">
+        <f>AVERAGE(K24:K28)</f>
+        <v>76.567969067969059</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>295</v>
+      </c>
+      <c r="D30" s="100">
+        <f>AVERAGE(D24:D29)</f>
+        <v>0.14539105955772622</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D31" s="100"/>
+      <c r="F31" t="s">
+        <v>296</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <f>H31*D30</f>
+        <v>14.539105955772621</v>
+      </c>
+      <c r="J31">
+        <v>500</v>
+      </c>
+      <c r="K31">
+        <f>J31*D30</f>
+        <v>72.695529778863104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7521,7 +7809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>

--- a/Resources/Misc/SyntaCalculations.xlsx
+++ b/Resources/Misc/SyntaCalculations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20085" windowHeight="10500" tabRatio="579" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20085" windowHeight="10500" tabRatio="579" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Synta Data" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
     <sheet name="Alignments" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="306">
   <si>
     <t>degrees</t>
   </si>
@@ -924,6 +925,30 @@
   </si>
   <si>
     <t>GOTO speeds at steps per ms</t>
+  </si>
+  <si>
+    <t>Sidereal</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>SPR</t>
+  </si>
+  <si>
+    <t>%Sidereal</t>
+  </si>
+  <si>
+    <t>SPS</t>
+  </si>
+  <si>
+    <t>Min Pulse(ms)</t>
+  </si>
+  <si>
+    <t>Minimal pulse for each mount based on sidreal rate</t>
+  </si>
+  <si>
+    <t>SIMulator</t>
   </si>
 </sst>
 </file>
@@ -938,7 +963,7 @@
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="0.00000000000"/>
     <numFmt numFmtId="170" formatCode="0.0000000000000000"/>
-    <numFmt numFmtId="172" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="171" formatCode="0.000000000000000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1346,6 +1371,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1367,7 +1393,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1645,11 +1670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425155072"/>
-        <c:axId val="425150760"/>
+        <c:axId val="426750392"/>
+        <c:axId val="426753920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="425155072"/>
+        <c:axId val="426750392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1692,7 +1717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425150760"/>
+        <c:crossAx val="426753920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1700,7 +1725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="425150760"/>
+        <c:axId val="426753920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,7 +1776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425155072"/>
+        <c:crossAx val="426750392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1952,11 +1977,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="425151544"/>
-        <c:axId val="425151936"/>
+        <c:axId val="426751176"/>
+        <c:axId val="426751960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="425151544"/>
+        <c:axId val="426751176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,7 +2024,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425151936"/>
+        <c:crossAx val="426751960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2007,7 +2032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="425151936"/>
+        <c:axId val="426751960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2058,7 +2083,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425151544"/>
+        <c:crossAx val="426751176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3549,8 +3574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4402,7 +4427,7 @@
       </c>
       <c r="C27" s="50"/>
       <c r="D27" s="58">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="F27" s="49" t="s">
         <v>8</v>
@@ -4419,7 +4444,7 @@
       <c r="C28" s="50"/>
       <c r="D28" s="51">
         <f>D27/1000</f>
-        <v>0.12</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F28" s="49" t="s">
         <v>9</v>
@@ -4429,6 +4454,9 @@
         <f>H27/1000</f>
         <v>0.13</v>
       </c>
+      <c r="J28" s="45">
+        <v>9024000</v>
+      </c>
       <c r="N28" t="s">
         <v>48</v>
       </c>
@@ -4457,6 +4485,9 @@
       <c r="G29" s="50"/>
       <c r="H29" s="58">
         <v>15.041</v>
+      </c>
+      <c r="J29">
+        <v>4.1780555555555555E-3</v>
       </c>
       <c r="N29" t="s">
         <v>52</v>
@@ -4483,6 +4514,9 @@
         <f>H29/3600</f>
         <v>4.1780555555555555E-3</v>
       </c>
+      <c r="J30">
+        <v>0.5</v>
+      </c>
       <c r="R30">
         <f>R29*P28</f>
         <v>1.9449568965517244E-3</v>
@@ -4502,6 +4536,10 @@
       <c r="G31" s="50"/>
       <c r="H31" s="58">
         <v>0.5</v>
+      </c>
+      <c r="J31">
+        <f>J29*J30</f>
+        <v>2.0890277777777778E-3</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -4521,6 +4559,10 @@
         <f>H30*H31</f>
         <v>2.0890277777777778E-3</v>
       </c>
+      <c r="J32">
+        <f>J28/360/3600</f>
+        <v>6.9629629629629637</v>
+      </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="49" t="s">
@@ -4562,6 +4604,10 @@
         <f>H33/360/3600</f>
         <v>4</v>
       </c>
+      <c r="J34">
+        <f>1/J32/3600/J31</f>
+        <v>1.9096738418535434E-2</v>
+      </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="49" t="s">
@@ -4570,7 +4616,7 @@
       <c r="C35" s="50"/>
       <c r="D35" s="51">
         <f>D28*D32*3600</f>
-        <v>0.90246000000000004</v>
+        <v>0.120328</v>
       </c>
       <c r="F35" s="49" t="s">
         <v>20</v>
@@ -4580,6 +4626,10 @@
         <f>H28*H32*3600</f>
         <v>0.9776649999999999</v>
       </c>
+      <c r="J35">
+        <f>J34*1000</f>
+        <v>19.096738418535434</v>
+      </c>
       <c r="N35" t="s">
         <v>49</v>
       </c>
@@ -4601,7 +4651,7 @@
       <c r="C36" s="53"/>
       <c r="D36" s="54">
         <f>D34*D35</f>
-        <v>7.7544711111111102</v>
+        <v>1.0339294814814814</v>
       </c>
       <c r="F36" s="52" t="s">
         <v>13</v>
@@ -4694,7 +4744,7 @@
       </c>
       <c r="D41">
         <f>D28*D32*3600</f>
-        <v>0.90246000000000004</v>
+        <v>0.120328</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
@@ -4756,7 +4806,7 @@
       </c>
       <c r="D43">
         <f>D41*D42</f>
-        <v>7.7544711111111102</v>
+        <v>1.0339294814814814</v>
       </c>
       <c r="E43" t="s">
         <v>19</v>
@@ -4787,7 +4837,7 @@
       </c>
       <c r="D44">
         <f>ROUNDUP(D43,0)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H44" s="62"/>
       <c r="I44" s="53">
@@ -4822,7 +4872,7 @@
         <v>29</v>
       </c>
       <c r="D47">
-        <v>1.2924118518518517</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
@@ -4872,7 +4922,7 @@
       </c>
       <c r="D49">
         <f>D41/D48*1000</f>
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="F49" t="s">
         <v>41</v>
@@ -4897,7 +4947,7 @@
       </c>
       <c r="D50">
         <f>D49*D47</f>
-        <v>155.0894222222222</v>
+        <v>16</v>
       </c>
       <c r="H50" s="62">
         <v>1118</v>
@@ -5296,8 +5346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5537,7 +5587,7 @@
       <c r="C24">
         <v>10000</v>
       </c>
-      <c r="D24" s="100">
+      <c r="D24" s="93">
         <f>C24/B24</f>
         <v>0.25</v>
       </c>
@@ -5569,7 +5619,7 @@
       <c r="C25">
         <v>5000</v>
       </c>
-      <c r="D25" s="100">
+      <c r="D25" s="93">
         <f t="shared" ref="D25:D29" si="0">C25/B25</f>
         <v>0.125</v>
       </c>
@@ -5601,7 +5651,7 @@
       <c r="C26">
         <v>9000</v>
       </c>
-      <c r="D26" s="100">
+      <c r="D26" s="93">
         <f t="shared" si="0"/>
         <v>0.12857142857142856</v>
       </c>
@@ -5633,7 +5683,7 @@
       <c r="C27">
         <v>5000</v>
       </c>
-      <c r="D27" s="100">
+      <c r="D27" s="93">
         <f t="shared" si="0"/>
         <v>7.6923076923076927E-2</v>
       </c>
@@ -5665,7 +5715,7 @@
       <c r="C28">
         <v>10000</v>
       </c>
-      <c r="D28" s="100">
+      <c r="D28" s="93">
         <f t="shared" si="0"/>
         <v>0.18518518518518517</v>
       </c>
@@ -5694,7 +5744,7 @@
       <c r="C29">
         <v>8000</v>
       </c>
-      <c r="D29" s="100">
+      <c r="D29" s="93">
         <f t="shared" si="0"/>
         <v>0.10666666666666667</v>
       </c>
@@ -5717,13 +5767,13 @@
       <c r="C30" t="s">
         <v>295</v>
       </c>
-      <c r="D30" s="100">
+      <c r="D30" s="93">
         <f>AVERAGE(D24:D29)</f>
         <v>0.14539105955772622</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D31" s="100"/>
+      <c r="D31" s="93"/>
       <c r="F31" t="s">
         <v>296</v>
       </c>
@@ -6979,7 +7029,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7027,8 +7077,8 @@
       <c r="A2" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>164</v>
+      <c r="B2" s="91">
+        <v>9024000</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>164</v>
@@ -7809,8 +7859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8087,16 +8137,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8211,7 +8261,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="98">
+      <c r="C14" s="99">
         <v>4</v>
       </c>
       <c r="D14" s="35" t="s">
@@ -8221,7 +8271,7 @@
         <f>J14*G14+J15*H14</f>
         <v>-0.2</v>
       </c>
-      <c r="F14" s="96" t="s">
+      <c r="F14" s="97" t="s">
         <v>254</v>
       </c>
       <c r="G14" s="36">
@@ -8232,7 +8282,7 @@
         <f>COS(H12)*(TAN(G7)*COS(H6)-TAN(G9)*COS(H8))</f>
         <v>-0.18392326893206981</v>
       </c>
-      <c r="I14" s="97" t="s">
+      <c r="I14" s="98" t="s">
         <v>255</v>
       </c>
       <c r="J14" s="38">
@@ -8241,7 +8291,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="98"/>
+      <c r="C15" s="99"/>
       <c r="D15" s="35" t="s">
         <v>267</v>
       </c>
@@ -8249,7 +8299,7 @@
         <f>J14*G15+J15*H15</f>
         <v>-0.35000000000000003</v>
       </c>
-      <c r="F15" s="96"/>
+      <c r="F15" s="97"/>
       <c r="G15" s="36">
         <f>COS(H8) - COS(H6)</f>
         <v>0.31376593904209982</v>
@@ -8258,7 +8308,7 @@
         <f>COS(H12)*(SIN(H8)-SIN(H6))</f>
         <v>-0.35208080814162784</v>
       </c>
-      <c r="I15" s="97"/>
+      <c r="I15" s="98"/>
       <c r="J15" s="38">
         <f>E20</f>
         <v>1.0014926977702903</v>
@@ -8284,7 +8334,7 @@
       <c r="J17" s="2"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="99">
+      <c r="C19" s="100">
         <v>6</v>
       </c>
       <c r="D19" s="41" t="s">
@@ -8294,7 +8344,7 @@
         <f>J19*G19 + J20*H19</f>
         <v>8.3066963446058462E-3</v>
       </c>
-      <c r="F19" s="94" t="s">
+      <c r="F19" s="95" t="s">
         <v>254</v>
       </c>
       <c r="G19" s="42">
@@ -8305,7 +8355,7 @@
         <f>-COS(H12) * (TAN(G7)*COS(H6)-TAN(G9)*COS(H8)) / G17</f>
         <v>0.25281984458836537</v>
       </c>
-      <c r="I19" s="95" t="s">
+      <c r="I19" s="96" t="s">
         <v>255</v>
       </c>
       <c r="J19" s="44">
@@ -8314,7 +8364,7 @@
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="99"/>
+      <c r="C20" s="100"/>
       <c r="D20" s="41" t="s">
         <v>269</v>
       </c>
@@ -8322,7 +8372,7 @@
         <f>J19*G20+J20*H20</f>
         <v>1.0014926977702903</v>
       </c>
-      <c r="F20" s="94"/>
+      <c r="F20" s="95"/>
       <c r="G20" s="42">
         <f>(COS(H6)-COS(H8)) / G17</f>
         <v>-0.43130081585840313</v>
@@ -8331,7 +8381,7 @@
         <f>(TAN(G9)*SIN(H8)-TAN(G7)*SIN(H6)) / G17</f>
         <v>-2.6149500988531704</v>
       </c>
-      <c r="I20" s="95"/>
+      <c r="I20" s="96"/>
       <c r="J20" s="44">
         <f>H11</f>
         <v>-0.35</v>
@@ -8368,4 +8418,794 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" s="32">
+        <v>9024000</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="32">
+        <v>11136000</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="32">
+        <v>2073600</v>
+      </c>
+      <c r="J4" s="32">
+        <v>12960000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="C5" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="D5" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="E5" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="F5" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="G5" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="H5" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="I5" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="J5" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" s="32">
+        <f t="shared" ref="B7:J7" si="0">B5*B6</f>
+        <v>4.1780555555555559E-4</v>
+      </c>
+      <c r="C7" s="32">
+        <f t="shared" si="0"/>
+        <v>4.1780555555555559E-4</v>
+      </c>
+      <c r="D7" s="32">
+        <f t="shared" si="0"/>
+        <v>4.1780555555555559E-4</v>
+      </c>
+      <c r="E7" s="32">
+        <f t="shared" si="0"/>
+        <v>4.1780555555555559E-4</v>
+      </c>
+      <c r="F7" s="32">
+        <f t="shared" si="0"/>
+        <v>4.1780555555555559E-4</v>
+      </c>
+      <c r="G7" s="32">
+        <f t="shared" si="0"/>
+        <v>4.1780555555555559E-4</v>
+      </c>
+      <c r="H7" s="32">
+        <f t="shared" si="0"/>
+        <v>4.1780555555555559E-4</v>
+      </c>
+      <c r="I7" s="32">
+        <f t="shared" si="0"/>
+        <v>4.1780555555555559E-4</v>
+      </c>
+      <c r="J7" s="32">
+        <f t="shared" si="0"/>
+        <v>4.1780555555555559E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="32">
+        <f t="shared" ref="B8:J8" si="1">B4/360/3600</f>
+        <v>6.9629629629629637</v>
+      </c>
+      <c r="C8" s="32">
+        <f t="shared" si="1"/>
+        <v>6.9629629629629637</v>
+      </c>
+      <c r="D8" s="32">
+        <f t="shared" si="1"/>
+        <v>3.4765432098765432</v>
+      </c>
+      <c r="E8" s="32">
+        <f t="shared" si="1"/>
+        <v>8.5925925925925917</v>
+      </c>
+      <c r="F8" s="32">
+        <f t="shared" si="1"/>
+        <v>7.1111111111111107</v>
+      </c>
+      <c r="G8" s="32">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="32">
+        <f t="shared" si="1"/>
+        <v>7.1111111111111107</v>
+      </c>
+      <c r="I8" s="32">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="J8" s="32">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" s="32">
+        <f t="shared" ref="B9:J9" si="2">1/B8/3600/B7 * 1000</f>
+        <v>95.48369209267716</v>
+      </c>
+      <c r="C9" s="32">
+        <f t="shared" si="2"/>
+        <v>95.48369209267716</v>
+      </c>
+      <c r="D9" s="32">
+        <f t="shared" si="2"/>
+        <v>191.238644674254</v>
+      </c>
+      <c r="E9" s="32">
+        <f t="shared" si="2"/>
+        <v>77.374716006134946</v>
+      </c>
+      <c r="F9" s="32">
+        <f t="shared" si="2"/>
+        <v>93.494448507413068</v>
+      </c>
+      <c r="G9" s="32">
+        <f t="shared" si="2"/>
+        <v>166.21235290206766</v>
+      </c>
+      <c r="H9" s="32">
+        <f t="shared" si="2"/>
+        <v>93.494448507413068</v>
+      </c>
+      <c r="I9" s="32">
+        <f t="shared" si="2"/>
+        <v>415.53088225516916</v>
+      </c>
+      <c r="J9" s="32">
+        <f t="shared" si="2"/>
+        <v>66.484941160827063</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" s="32">
+        <v>9024000</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="32">
+        <v>11136000</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" s="32">
+        <v>2073600</v>
+      </c>
+      <c r="J13" s="32">
+        <v>12960000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B14" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="C14" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="D14" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="E14" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="F14" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="G14" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="H14" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="I14" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="J14" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B15" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" s="32">
+        <f t="shared" ref="B16:J16" si="3">B14*B15</f>
+        <v>2.0890277777777778E-3</v>
+      </c>
+      <c r="C16" s="32">
+        <f t="shared" si="3"/>
+        <v>2.0890277777777778E-3</v>
+      </c>
+      <c r="D16" s="32">
+        <f t="shared" si="3"/>
+        <v>2.0890277777777778E-3</v>
+      </c>
+      <c r="E16" s="32">
+        <f t="shared" si="3"/>
+        <v>2.0890277777777778E-3</v>
+      </c>
+      <c r="F16" s="32">
+        <f t="shared" si="3"/>
+        <v>2.0890277777777778E-3</v>
+      </c>
+      <c r="G16" s="32">
+        <f t="shared" si="3"/>
+        <v>2.0890277777777778E-3</v>
+      </c>
+      <c r="H16" s="32">
+        <f t="shared" si="3"/>
+        <v>2.0890277777777778E-3</v>
+      </c>
+      <c r="I16" s="32">
+        <f t="shared" si="3"/>
+        <v>2.0890277777777778E-3</v>
+      </c>
+      <c r="J16" s="32">
+        <f t="shared" si="3"/>
+        <v>2.0890277777777778E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B17" s="32">
+        <f t="shared" ref="B17:J17" si="4">B13/360/3600</f>
+        <v>6.9629629629629637</v>
+      </c>
+      <c r="C17" s="32">
+        <f t="shared" si="4"/>
+        <v>6.9629629629629637</v>
+      </c>
+      <c r="D17" s="32">
+        <f t="shared" si="4"/>
+        <v>3.4765432098765432</v>
+      </c>
+      <c r="E17" s="32">
+        <f t="shared" si="4"/>
+        <v>8.5925925925925917</v>
+      </c>
+      <c r="F17" s="32">
+        <f t="shared" si="4"/>
+        <v>7.1111111111111107</v>
+      </c>
+      <c r="G17" s="32">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H17" s="32">
+        <f t="shared" si="4"/>
+        <v>7.1111111111111107</v>
+      </c>
+      <c r="I17" s="32">
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
+      <c r="J17" s="32">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18" s="32">
+        <f t="shared" ref="B18:J18" si="5">1/B17/3600/B16 * 1000</f>
+        <v>19.096738418535434</v>
+      </c>
+      <c r="C18" s="32">
+        <f t="shared" si="5"/>
+        <v>19.096738418535434</v>
+      </c>
+      <c r="D18" s="32">
+        <f t="shared" si="5"/>
+        <v>38.247728934850805</v>
+      </c>
+      <c r="E18" s="32">
+        <f t="shared" si="5"/>
+        <v>15.474943201226992</v>
+      </c>
+      <c r="F18" s="32">
+        <f t="shared" si="5"/>
+        <v>18.698889701482614</v>
+      </c>
+      <c r="G18" s="32">
+        <f t="shared" si="5"/>
+        <v>33.242470580413539</v>
+      </c>
+      <c r="H18" s="32">
+        <f t="shared" si="5"/>
+        <v>18.698889701482614</v>
+      </c>
+      <c r="I18" s="32">
+        <f t="shared" si="5"/>
+        <v>83.106176451033832</v>
+      </c>
+      <c r="J18" s="32">
+        <f t="shared" si="5"/>
+        <v>13.296988232165415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>300</v>
+      </c>
+      <c r="B22" s="32">
+        <v>9024000</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="32">
+        <v>11136000</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" s="32">
+        <v>2073600</v>
+      </c>
+      <c r="J22" s="32">
+        <v>12960000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>298</v>
+      </c>
+      <c r="B23" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="C23" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="D23" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="E23" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="F23" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="G23" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="H23" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="I23" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+      <c r="J23" s="32">
+        <v>4.1780555555555555E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="C24" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="H24" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="I24" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="J24" s="32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>299</v>
+      </c>
+      <c r="B25" s="32">
+        <f t="shared" ref="B25:J25" si="6">B23*B24</f>
+        <v>1.6712222222222224E-3</v>
+      </c>
+      <c r="C25" s="32">
+        <f t="shared" si="6"/>
+        <v>1.6712222222222224E-3</v>
+      </c>
+      <c r="D25" s="32">
+        <f t="shared" si="6"/>
+        <v>1.6712222222222224E-3</v>
+      </c>
+      <c r="E25" s="32">
+        <f t="shared" si="6"/>
+        <v>1.6712222222222224E-3</v>
+      </c>
+      <c r="F25" s="32">
+        <f t="shared" si="6"/>
+        <v>1.6712222222222224E-3</v>
+      </c>
+      <c r="G25" s="32">
+        <f t="shared" si="6"/>
+        <v>1.6712222222222224E-3</v>
+      </c>
+      <c r="H25" s="32">
+        <f t="shared" si="6"/>
+        <v>1.6712222222222224E-3</v>
+      </c>
+      <c r="I25" s="32">
+        <f t="shared" si="6"/>
+        <v>1.6712222222222224E-3</v>
+      </c>
+      <c r="J25" s="32">
+        <f t="shared" si="6"/>
+        <v>1.6712222222222224E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>302</v>
+      </c>
+      <c r="B26" s="32">
+        <f t="shared" ref="B26:J26" si="7">B22/360/3600</f>
+        <v>6.9629629629629637</v>
+      </c>
+      <c r="C26" s="32">
+        <f t="shared" si="7"/>
+        <v>6.9629629629629637</v>
+      </c>
+      <c r="D26" s="32">
+        <f t="shared" si="7"/>
+        <v>3.4765432098765432</v>
+      </c>
+      <c r="E26" s="32">
+        <f t="shared" si="7"/>
+        <v>8.5925925925925917</v>
+      </c>
+      <c r="F26" s="32">
+        <f t="shared" si="7"/>
+        <v>7.1111111111111107</v>
+      </c>
+      <c r="G26" s="32">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="H26" s="32">
+        <f t="shared" si="7"/>
+        <v>7.1111111111111107</v>
+      </c>
+      <c r="I26" s="32">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="J26" s="32">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>303</v>
+      </c>
+      <c r="B27" s="32">
+        <f t="shared" ref="B27:J27" si="8">1/B26/3600/B25 * 1000</f>
+        <v>23.87092302316929</v>
+      </c>
+      <c r="C27" s="32">
+        <f t="shared" si="8"/>
+        <v>23.87092302316929</v>
+      </c>
+      <c r="D27" s="32">
+        <f t="shared" si="8"/>
+        <v>47.809661168563501</v>
+      </c>
+      <c r="E27" s="32">
+        <f t="shared" si="8"/>
+        <v>19.343679001533737</v>
+      </c>
+      <c r="F27" s="32">
+        <f t="shared" si="8"/>
+        <v>23.373612126853267</v>
+      </c>
+      <c r="G27" s="32">
+        <f t="shared" si="8"/>
+        <v>41.553088225516916</v>
+      </c>
+      <c r="H27" s="32">
+        <f t="shared" si="8"/>
+        <v>23.373612126853267</v>
+      </c>
+      <c r="I27" s="32">
+        <f t="shared" si="8"/>
+        <v>103.88272056379229</v>
+      </c>
+      <c r="J27" s="32">
+        <f t="shared" si="8"/>
+        <v>16.621235290206766</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Resources/Misc/SyntaCalculations.xlsx
+++ b/Resources/Misc/SyntaCalculations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20085" windowHeight="10500" tabRatio="579" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20085" windowHeight="10500" tabRatio="579" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="307">
   <si>
     <t>degrees</t>
   </si>
@@ -949,6 +949,9 @@
   </si>
   <si>
     <t>SIMulator</t>
+  </si>
+  <si>
+    <t>EQ6 Pulse to steps</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1393,6 +1396,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1670,11 +1674,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="426750392"/>
-        <c:axId val="426753920"/>
+        <c:axId val="432671544"/>
+        <c:axId val="432677032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="426750392"/>
+        <c:axId val="432671544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1717,7 +1721,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426753920"/>
+        <c:crossAx val="432677032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1725,7 +1729,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="426753920"/>
+        <c:axId val="432677032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1776,7 +1780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426750392"/>
+        <c:crossAx val="432671544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1977,11 +1981,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="426751176"/>
-        <c:axId val="426751960"/>
+        <c:axId val="432673896"/>
+        <c:axId val="432673504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="426751176"/>
+        <c:axId val="432673896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2024,7 +2028,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426751960"/>
+        <c:crossAx val="432673504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2032,7 +2036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="426751960"/>
+        <c:axId val="432673504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2087,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426751176"/>
+        <c:crossAx val="432673896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3574,8 +3578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3588,6 +3592,7 @@
     <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
@@ -4408,6 +4413,11 @@
       </c>
       <c r="G25" s="47"/>
       <c r="H25" s="57"/>
+      <c r="J25" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="K25" s="56"/>
+      <c r="L25" s="57"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" s="49" t="s">
@@ -4420,6 +4430,11 @@
       </c>
       <c r="G26" s="50"/>
       <c r="H26" s="51"/>
+      <c r="J26" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="50"/>
+      <c r="L26" s="51"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="49" t="s">
@@ -4435,6 +4450,13 @@
       <c r="G27" s="50"/>
       <c r="H27" s="58">
         <v>130</v>
+      </c>
+      <c r="J27" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="50"/>
+      <c r="L27" s="58">
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -4454,8 +4476,13 @@
         <f>H27/1000</f>
         <v>0.13</v>
       </c>
-      <c r="J28" s="45">
-        <v>9024000</v>
+      <c r="J28" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="50"/>
+      <c r="L28" s="51">
+        <f>L27/1000</f>
+        <v>0.1</v>
       </c>
       <c r="N28" t="s">
         <v>48</v>
@@ -4486,8 +4513,12 @@
       <c r="H29" s="58">
         <v>15.041</v>
       </c>
-      <c r="J29">
-        <v>4.1780555555555555E-3</v>
+      <c r="J29" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="50"/>
+      <c r="L29" s="58">
+        <v>15.041</v>
       </c>
       <c r="N29" t="s">
         <v>52</v>
@@ -4514,8 +4545,13 @@
         <f>H29/3600</f>
         <v>4.1780555555555555E-3</v>
       </c>
-      <c r="J30">
-        <v>0.5</v>
+      <c r="J30" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="50"/>
+      <c r="L30" s="51">
+        <f>L29/3600</f>
+        <v>4.1780555555555555E-3</v>
       </c>
       <c r="R30">
         <f>R29*P28</f>
@@ -4537,9 +4573,12 @@
       <c r="H31" s="58">
         <v>0.5</v>
       </c>
-      <c r="J31">
-        <f>J29*J30</f>
-        <v>2.0890277777777778E-3</v>
+      <c r="J31" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="50"/>
+      <c r="L31" s="58">
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -4559,9 +4598,13 @@
         <f>H30*H31</f>
         <v>2.0890277777777778E-3</v>
       </c>
-      <c r="J32">
-        <f>J28/360/3600</f>
-        <v>6.9629629629629637</v>
+      <c r="J32" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="50"/>
+      <c r="L32" s="51">
+        <f>L30*L31</f>
+        <v>2.0890277777777778E-3</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
@@ -4578,6 +4621,13 @@
       <c r="G33" s="50"/>
       <c r="H33" s="59">
         <v>5184000</v>
+      </c>
+      <c r="J33" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="50"/>
+      <c r="L33" s="59">
+        <v>9024000</v>
       </c>
       <c r="N33" t="s">
         <v>53</v>
@@ -4604,9 +4654,13 @@
         <f>H33/360/3600</f>
         <v>4</v>
       </c>
-      <c r="J34">
-        <f>1/J32/3600/J31</f>
-        <v>1.9096738418535434E-2</v>
+      <c r="J34" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="50"/>
+      <c r="L34" s="51">
+        <f>L33/360/3600</f>
+        <v>6.9629629629629637</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
@@ -4626,9 +4680,13 @@
         <f>H28*H32*3600</f>
         <v>0.9776649999999999</v>
       </c>
-      <c r="J35">
-        <f>J34*1000</f>
-        <v>19.096738418535434</v>
+      <c r="J35" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="50"/>
+      <c r="L35" s="51">
+        <f>L28*L32*3600</f>
+        <v>0.75205000000000011</v>
       </c>
       <c r="N35" t="s">
         <v>49</v>
@@ -4660,6 +4718,14 @@
       <c r="H36" s="54">
         <f>H34*H35</f>
         <v>3.9106599999999996</v>
+      </c>
+      <c r="J36" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="53"/>
+      <c r="L36" s="54">
+        <f>L34*L35</f>
+        <v>5.2364962962962975</v>
       </c>
     </row>
     <row r="38" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4830,6 +4896,9 @@
         <f t="shared" si="10"/>
         <v>8381851</v>
       </c>
+      <c r="N43" s="45">
+        <v>9024000</v>
+      </c>
     </row>
     <row r="44" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
@@ -4856,8 +4925,15 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="N44">
+        <v>4.1780555555555555E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N45">
+        <v>0.5</v>
+      </c>
+    </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H46" s="63" t="s">
         <v>148</v>
@@ -4866,12 +4942,16 @@
       <c r="J46" s="47"/>
       <c r="K46" s="47"/>
       <c r="L46" s="57"/>
+      <c r="N46">
+        <f>N44*N45</f>
+        <v>2.0890277777777778E-3</v>
+      </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>29</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="101">
         <v>1</v>
       </c>
       <c r="F47" t="s">
@@ -4890,6 +4970,10 @@
         <f>MID(J47,5,2) &amp; MID(J47,3,2) &amp; MID(J47,1,2)</f>
         <v>B70100</v>
       </c>
+      <c r="N47">
+        <f>N43/360/3600</f>
+        <v>6.9629629629629637</v>
+      </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -4940,6 +5024,10 @@
         <f t="shared" si="12"/>
         <v>5F0400</v>
       </c>
+      <c r="N49">
+        <f>1/N47/3600/N46</f>
+        <v>1.9096738418535434E-2</v>
+      </c>
     </row>
     <row r="50" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
@@ -4962,6 +5050,10 @@
         <f t="shared" si="12"/>
         <v>5E0400</v>
       </c>
+      <c r="N50">
+        <f>N49*1000</f>
+        <v>19.096738418535434</v>
+      </c>
     </row>
     <row r="51" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F51" t="s">
@@ -4974,7 +5066,7 @@
       </c>
       <c r="C52" s="47"/>
       <c r="D52" s="48">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="F52" t="s">
         <v>41</v>
@@ -4991,7 +5083,7 @@
       <c r="C53" s="50"/>
       <c r="D53" s="51">
         <f>D52/D34</f>
-        <v>0.1163793103448276</v>
+        <v>10.590517241379311</v>
       </c>
       <c r="F53" t="s">
         <v>40</v>
@@ -5010,7 +5102,7 @@
       <c r="C54" s="50"/>
       <c r="D54" s="51">
         <f>D53/3600</f>
-        <v>3.2327586206896553E-5</v>
+        <v>2.9418103448275866E-3</v>
       </c>
       <c r="H54" s="55" t="s">
         <v>110</v>
@@ -5025,7 +5117,7 @@
       <c r="C55" s="50"/>
       <c r="D55" s="51">
         <f>D54/D32</f>
-        <v>1.5474943201226991E-2</v>
+        <v>1.4082198313116563</v>
       </c>
       <c r="H55" s="66" t="s">
         <v>102</v>
@@ -5048,7 +5140,7 @@
       <c r="C56" s="53"/>
       <c r="D56" s="54">
         <f>D55*1000</f>
-        <v>15.474943201226992</v>
+        <v>1408.2198313116562</v>
       </c>
       <c r="H56" s="49" t="s">
         <v>103</v>
@@ -5347,7 +5439,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7028,8 +7120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8424,7 +8516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>

--- a/Resources/Misc/SyntaCalculations.xlsx
+++ b/Resources/Misc/SyntaCalculations.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="313">
   <si>
     <t>degrees</t>
   </si>
@@ -309,9 +309,6 @@
     <t>B70100</t>
   </si>
   <si>
-    <t>9BE57F</t>
-  </si>
-  <si>
     <t>MountAxis to Mount convertor</t>
   </si>
   <si>
@@ -952,6 +949,27 @@
   </si>
   <si>
     <t>EQ6 Pulse to steps</t>
+  </si>
+  <si>
+    <t>EQ8-R</t>
+  </si>
+  <si>
+    <t>:q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0024F4 </t>
+  </si>
+  <si>
+    <t>EQ8-Rh</t>
+  </si>
+  <si>
+    <t>B6000</t>
+  </si>
+  <si>
+    <t>B3000</t>
+  </si>
+  <si>
+    <t>!0</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1375,6 +1393,9 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1396,7 +1417,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1674,11 +1694,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="432671544"/>
-        <c:axId val="432677032"/>
+        <c:axId val="427359808"/>
+        <c:axId val="427352752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="432671544"/>
+        <c:axId val="427359808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,7 +1741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432677032"/>
+        <c:crossAx val="427352752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1729,7 +1749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432677032"/>
+        <c:axId val="427352752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1800,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432671544"/>
+        <c:crossAx val="427359808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1981,11 +2001,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="432673896"/>
-        <c:axId val="432673504"/>
+        <c:axId val="427355104"/>
+        <c:axId val="427353536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="432673896"/>
+        <c:axId val="427355104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2028,7 +2048,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432673504"/>
+        <c:crossAx val="427353536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2036,7 +2056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432673504"/>
+        <c:axId val="427353536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,7 +2107,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432673896"/>
+        <c:crossAx val="427355104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3578,8 +3598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4404,7 +4424,7 @@
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B25" s="55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="56"/>
       <c r="D25" s="57"/>
@@ -4414,7 +4434,7 @@
       <c r="G25" s="47"/>
       <c r="H25" s="57"/>
       <c r="J25" s="55" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K25" s="56"/>
       <c r="L25" s="57"/>
@@ -4730,12 +4750,12 @@
     </row>
     <row r="38" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N38" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H39" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I39" s="56"/>
       <c r="J39" s="56"/>
@@ -4744,19 +4764,19 @@
         <v>37</v>
       </c>
       <c r="N39" t="s">
+        <v>93</v>
+      </c>
+      <c r="O39" t="s">
         <v>94</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
+        <v>97</v>
+      </c>
+      <c r="R39" t="s">
         <v>95</v>
       </c>
-      <c r="P39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>96</v>
-      </c>
-      <c r="S39" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
@@ -4878,23 +4898,23 @@
         <v>19</v>
       </c>
       <c r="H43" s="61" t="s">
-        <v>92</v>
+        <v>308</v>
       </c>
       <c r="I43" s="50">
         <f t="shared" si="7"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="J43" s="50">
         <f t="shared" si="8"/>
-        <v>58624</v>
+        <v>9216</v>
       </c>
       <c r="K43" s="50">
         <f t="shared" si="9"/>
-        <v>8323072</v>
+        <v>15990784</v>
       </c>
       <c r="L43" s="51">
         <f t="shared" si="10"/>
-        <v>8381851</v>
+        <v>16000000</v>
       </c>
       <c r="N43" s="45">
         <v>9024000</v>
@@ -4936,7 +4956,7 @@
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H46" s="63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I46" s="47"/>
       <c r="J46" s="47"/>
@@ -4951,7 +4971,7 @@
       <c r="B47" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="101">
+      <c r="D47" s="94">
         <v>1</v>
       </c>
       <c r="F47" t="s">
@@ -5062,7 +5082,7 @@
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C52" s="47"/>
       <c r="D52" s="48">
@@ -5078,7 +5098,7 @@
     </row>
     <row r="53" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C53" s="50"/>
       <c r="D53" s="51">
@@ -5105,7 +5125,7 @@
         <v>2.9418103448275866E-3</v>
       </c>
       <c r="H54" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I54" s="47"/>
       <c r="J54" s="47"/>
@@ -5120,7 +5140,7 @@
         <v>1.4082198313116563</v>
       </c>
       <c r="H55" s="66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I55" s="67">
         <v>3.0000000000000001E-3</v>
@@ -5135,7 +5155,7 @@
     </row>
     <row r="56" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C56" s="53"/>
       <c r="D56" s="54">
@@ -5143,7 +5163,7 @@
         <v>1408.2198313116562</v>
       </c>
       <c r="H56" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I56" s="50"/>
       <c r="J56" s="68">
@@ -5157,23 +5177,23 @@
       <c r="H57" s="49"/>
       <c r="I57" s="50"/>
       <c r="J57" s="69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K57" s="50"/>
       <c r="L57" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58" s="47"/>
       <c r="D58" s="47"/>
       <c r="E58" s="47"/>
       <c r="F58" s="57"/>
       <c r="H58" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I58" s="50"/>
       <c r="J58" s="50">
@@ -5208,7 +5228,7 @@
       <c r="E59" s="50"/>
       <c r="F59" s="51"/>
       <c r="H59" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I59" s="50"/>
       <c r="J59" s="50" t="e">
@@ -5238,7 +5258,7 @@
         <v>0.83456999999999992</v>
       </c>
       <c r="H60" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I60" s="50"/>
       <c r="J60" s="50" t="e">
@@ -5338,7 +5358,7 @@
         <v>0.4769892</v>
       </c>
       <c r="H64" s="73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I64" s="50"/>
       <c r="J64" s="19">
@@ -5362,7 +5382,7 @@
         <v>0.32750078471999999</v>
       </c>
       <c r="H65" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I65" s="50"/>
       <c r="J65" s="50">
@@ -5377,7 +5397,7 @@
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H66" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I66" s="50"/>
       <c r="J66" s="19">
@@ -5392,7 +5412,7 @@
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H67" s="73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I67" s="50"/>
       <c r="J67" s="19">
@@ -5406,16 +5426,16 @@
       <c r="H68" s="49"/>
       <c r="I68" s="50"/>
       <c r="J68" s="69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K68" s="50"/>
       <c r="L68" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H69" s="74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I69" s="53"/>
       <c r="J69" s="53">
@@ -5438,7 +5458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -5495,21 +5515,21 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="1">
         <v>15.041067178700001</v>
       </c>
       <c r="H13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I13" s="23">
         <v>7.2920825775685299E-5</v>
@@ -5526,28 +5546,28 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" t="s">
         <v>152</v>
-      </c>
-      <c r="D16" t="s">
-        <v>153</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M16" t="s">
         <v>4</v>
@@ -5599,7 +5619,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" t="str">
         <f>'Synta Data'!H2</f>
@@ -5614,7 +5634,7 @@
         <v>1118.9698044719896</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H18" s="11">
         <f>1/$I$13</f>
@@ -5643,35 +5663,35 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
+        <v>288</v>
+      </c>
+      <c r="D23" t="s">
+        <v>293</v>
+      </c>
+      <c r="H23" t="s">
         <v>289</v>
       </c>
-      <c r="D23" t="s">
-        <v>294</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>290</v>
       </c>
-      <c r="I23" t="s">
-        <v>291</v>
-      </c>
       <c r="J23" t="s">
+        <v>289</v>
+      </c>
+      <c r="K23" t="s">
         <v>290</v>
-      </c>
-      <c r="K23" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B24">
         <v>40000</v>
@@ -5684,7 +5704,7 @@
         <v>0.25</v>
       </c>
       <c r="E24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H24">
         <v>100</v>
@@ -5703,7 +5723,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25">
         <v>40000</v>
@@ -5716,7 +5736,7 @@
         <v>0.125</v>
       </c>
       <c r="E25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H25">
         <v>100</v>
@@ -5735,7 +5755,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B26">
         <v>70000</v>
@@ -5748,7 +5768,7 @@
         <v>0.12857142857142856</v>
       </c>
       <c r="E26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H26">
         <v>100</v>
@@ -5767,7 +5787,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B27">
         <v>65000</v>
@@ -5780,7 +5800,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="E27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H27">
         <v>100</v>
@@ -5799,7 +5819,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B28">
         <v>54000</v>
@@ -5841,14 +5861,14 @@
         <v>0.10666666666666667</v>
       </c>
       <c r="H29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I29">
         <f>AVERAGE(I24:I28)</f>
         <v>15.313593813593815</v>
       </c>
       <c r="J29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K29">
         <f>AVERAGE(K24:K28)</f>
@@ -5857,7 +5877,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D30" s="93">
         <f>AVERAGE(D24:D29)</f>
@@ -5867,7 +5887,7 @@
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D31" s="93"/>
       <c r="F31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H31">
         <v>100</v>
@@ -6700,33 +6720,33 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J1" s="9"/>
       <c r="K1" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L1" s="9"/>
       <c r="M1" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C2" s="9"/>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="9">
         <v>200</v>
@@ -6758,7 +6778,7 @@
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C3" s="9"/>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3" s="9">
         <v>400</v>
@@ -6813,17 +6833,17 @@
       <c r="C6" s="9"/>
       <c r="D6" s="20"/>
       <c r="E6" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -6832,13 +6852,13 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>126</v>
       </c>
       <c r="E7" s="9">
         <v>2</v>
@@ -6861,10 +6881,10 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>127</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>128</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -6904,13 +6924,13 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>129</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>130</v>
       </c>
       <c r="E11" s="9">
         <v>18</v>
@@ -6939,10 +6959,10 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>132</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -6969,7 +6989,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -6977,7 +6997,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21">
         <v>11136000</v>
@@ -6985,7 +7005,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22">
         <v>1296000</v>
@@ -6993,43 +7013,43 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23">
         <f>(B20 / 1000) *( PI() / (180 * 60 * 60))</f>
         <v>4.8481368110953601E-8</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24">
         <f>C21/ (2 * PI())</f>
         <v>1772349.4462713464</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25">
         <f>C23*C24</f>
         <v>8.5925925925925919E-2</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28">
         <v>0.5</v>
@@ -7037,7 +7057,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B29">
         <v>15.041067178700001</v>
@@ -7045,7 +7065,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30">
         <f>C21/360/3600</f>
@@ -7054,7 +7074,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C31">
         <f>(B20/1000)*B28*B29</f>
@@ -7063,7 +7083,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C32">
         <f>C31*C30</f>
@@ -7072,7 +7092,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C35">
         <f>B29/3600</f>
@@ -7118,10 +7138,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7133,137 +7153,149 @@
     <col min="6" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>158</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>159</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K1" s="95" t="s">
+        <v>306</v>
+      </c>
+      <c r="L1" s="95" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>162</v>
-      </c>
-      <c r="J1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>163</v>
       </c>
       <c r="B2" s="91">
         <v>9024000</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="25" t="s">
         <v>165</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>166</v>
       </c>
       <c r="F2" s="91">
         <v>11136000</v>
       </c>
       <c r="G2" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>168</v>
-      </c>
       <c r="I2" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J2">
         <v>2073600</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="91">
+        <v>11136000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="25" t="s">
+      <c r="G3" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="H3" s="25" t="s">
-        <v>175</v>
-      </c>
       <c r="I3" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>176</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>177</v>
       </c>
       <c r="C4" s="25">
         <v>64935</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F4" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="H4" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="H4" s="25" t="s">
-        <v>180</v>
-      </c>
       <c r="I4" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J4">
         <v>16000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="25">
         <v>16</v>
@@ -7272,10 +7304,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F5" s="25">
         <v>16</v>
@@ -7292,71 +7324,74 @@
       <c r="J5" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="C6" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="D6" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="25" t="s">
+      <c r="G6" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>186</v>
-      </c>
       <c r="I6" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J6">
         <v>24541</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="C7" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" s="25" t="s">
+      <c r="G7" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>189</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>190</v>
       </c>
       <c r="B8" s="25">
         <v>200</v>
@@ -7368,7 +7403,7 @@
         <v>200</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F8" s="25">
         <v>400</v>
@@ -7382,10 +7417,13 @@
       <c r="I8" s="25">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="96">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B9" s="25">
         <v>64</v>
@@ -7397,7 +7435,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F9" s="25">
         <v>64</v>
@@ -7412,38 +7450,38 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="C10" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="E10" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="I10" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>194</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>195</v>
       </c>
       <c r="B11" s="25">
         <v>705</v>
@@ -7455,7 +7493,7 @@
         <v>704</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11" s="25">
         <v>435</v>
@@ -7469,39 +7507,42 @@
       <c r="I11" s="25">
         <v>720</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="96">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="C12" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="D12" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" s="25" t="s">
+      <c r="G12" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="H12" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="I12" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>202</v>
       </c>
       <c r="B13" s="25">
         <v>180</v>
@@ -7513,7 +7554,7 @@
         <v>144</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F13" s="25">
         <v>435</v>
@@ -7528,38 +7569,38 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="C14" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F14" s="25" t="s">
+      <c r="G14" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="H14" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="I14" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
         <v>207</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>208</v>
       </c>
       <c r="B15" s="25">
         <v>783.33299999999997</v>
@@ -7568,10 +7609,10 @@
         <v>1044.444</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F15" s="25">
         <v>400</v>
@@ -7580,15 +7621,15 @@
         <v>800</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I15" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" s="25">
         <v>9.1914890000000007</v>
@@ -7597,10 +7638,10 @@
         <v>9.1914890000000007</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F16" s="25">
         <v>7.4482759999999999</v>
@@ -7615,9 +7656,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B17" s="25">
         <v>0.14361699999999999</v>
@@ -7626,10 +7667,10 @@
         <v>0.14361699999999999</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F17" s="25">
         <v>0.116379</v>
@@ -7644,9 +7685,9 @@
         <v>0.140625</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B18" s="25">
         <v>6.9629630000000002</v>
@@ -7655,10 +7696,10 @@
         <v>6.9629630000000002</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F18" s="25">
         <v>8.5925930000000008</v>
@@ -7672,51 +7713,54 @@
       <c r="I18" s="25">
         <v>7.1111110000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="25">
+        <v>8.5925930000000008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="C19" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="F19" s="25" t="s">
+      <c r="G19" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="H19" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="I19" s="25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="I19" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="B20" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F20" s="25">
         <v>73.536000000000001</v>
@@ -7728,53 +7772,53 @@
         <v>251.94399999999999</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F21" s="25">
         <v>631.86599999999999</v>
       </c>
       <c r="G21" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="H21" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="I21" s="25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="I21" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>222</v>
-      </c>
       <c r="B22" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F22" s="25">
         <v>2</v>
@@ -7783,27 +7827,27 @@
         <v>2</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I22" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F23" s="25">
         <v>100</v>
@@ -7818,21 +7862,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F24" s="25">
         <v>256</v>
@@ -7846,22 +7890,25 @@
       <c r="I24" s="25">
         <v>512</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="96">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F25" s="25">
         <v>29.792999999999999</v>
@@ -7876,70 +7923,96 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="C26" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F26" s="25" t="s">
+      <c r="G26" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="H26" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="G26" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="H26" s="25" t="s">
+      <c r="I26" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="I26" s="25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="B27" s="25" t="s">
+      <c r="C27" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" s="25" t="s">
+      <c r="G27" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="H27" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="H27" s="25" t="s">
-        <v>234</v>
-      </c>
       <c r="I27" s="25" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J28">
         <v>664846</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="B29" s="96" t="s">
+        <v>312</v>
+      </c>
+      <c r="F29">
+        <v>76000</v>
+      </c>
+      <c r="G29" t="s">
+        <v>311</v>
+      </c>
+      <c r="H29" t="s">
+        <v>310</v>
+      </c>
+      <c r="I29" t="s">
+        <v>312</v>
+      </c>
+      <c r="J29">
+        <v>98000</v>
+      </c>
+      <c r="K29">
+        <v>60001</v>
       </c>
     </row>
   </sheetData>
@@ -7965,7 +8038,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E2" s="28">
         <v>15.041</v>
@@ -7979,13 +8052,13 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E3" s="27">
         <v>3600</v>
       </c>
       <c r="G3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I3" s="30">
         <f>I2/1000</f>
@@ -7994,14 +8067,14 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E4" s="27">
         <f>E2/E3</f>
         <v>4.1780555555555555E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I4" s="27">
         <f>I3*E4*E3</f>
@@ -8010,13 +8083,13 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E5" s="27">
         <v>360</v>
       </c>
       <c r="G5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I5" s="27">
         <f>I4/3600</f>
@@ -8025,7 +8098,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E7" s="27">
         <v>12960000</v>
@@ -8033,7 +8106,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E8" s="27">
         <f>E7/E5/E3</f>
@@ -8043,7 +8116,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E9" s="27">
         <f>E8*I4</f>
@@ -8074,7 +8147,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E15" s="27">
         <v>86164.091</v>
@@ -8091,7 +8164,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E17" s="27">
         <f>E5/E15</f>
@@ -8109,7 +8182,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E21" s="27">
         <f>E7/360/60/60</f>
@@ -8121,7 +8194,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E22" s="27">
         <f>E21*E17</f>
@@ -8146,13 +8219,13 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="92" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C27" s="92"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E28" s="27">
         <v>11136000</v>
@@ -8160,7 +8233,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E29" s="27">
         <f>2 * PI()/E28</f>
@@ -8169,7 +8242,7 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E31" s="27">
         <v>10552964</v>
@@ -8177,7 +8250,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E32" s="27">
         <f>E31-8388608</f>
@@ -8186,7 +8259,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E33" s="27">
         <f>E32*E29</f>
@@ -8195,7 +8268,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E35" s="27">
         <f>180 / PI() * E33</f>
@@ -8229,36 +8302,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
-        <v>272</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
+      <c r="A1" s="97" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G5" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E6" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G6" s="34">
         <v>3</v>
@@ -8271,10 +8344,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E7" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G7" s="34">
         <v>48</v>
@@ -8283,10 +8356,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G8" s="34">
         <v>23</v>
@@ -8298,10 +8371,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E9" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G9" s="34">
         <v>45</v>
@@ -8310,10 +8383,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G10" s="34">
         <v>-12</v>
@@ -8325,10 +8398,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11" s="34">
         <v>-21</v>
@@ -8340,31 +8413,31 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" t="s">
         <v>253</v>
       </c>
-      <c r="F12" t="s">
-        <v>254</v>
-      </c>
       <c r="G12" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H12" s="32">
         <v>42.666666669999998</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="99">
+      <c r="C14" s="102">
         <v>4</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E14" s="31">
         <f>J14*G14+J15*H14</f>
         <v>-0.2</v>
       </c>
-      <c r="F14" s="97" t="s">
-        <v>254</v>
+      <c r="F14" s="100" t="s">
+        <v>253</v>
       </c>
       <c r="G14" s="36">
         <f>TAN(G9)*SIN(H8)-TAN(G7)*SIN(H6)</f>
@@ -8374,8 +8447,8 @@
         <f>COS(H12)*(TAN(G7)*COS(H6)-TAN(G9)*COS(H8))</f>
         <v>-0.18392326893206981</v>
       </c>
-      <c r="I14" s="98" t="s">
-        <v>255</v>
+      <c r="I14" s="101" t="s">
+        <v>254</v>
       </c>
       <c r="J14" s="38">
         <f>E19</f>
@@ -8383,15 +8456,15 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="99"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E15" s="31">
         <f>J14*G15+J15*H15</f>
         <v>-0.35000000000000003</v>
       </c>
-      <c r="F15" s="97"/>
+      <c r="F15" s="100"/>
       <c r="G15" s="36">
         <f>COS(H8) - COS(H6)</f>
         <v>0.31376593904209982</v>
@@ -8400,7 +8473,7 @@
         <f>COS(H12)*(SIN(H8)-SIN(H6))</f>
         <v>-0.35208080814162784</v>
       </c>
-      <c r="I15" s="98"/>
+      <c r="I15" s="101"/>
       <c r="J15" s="38">
         <f>E20</f>
         <v>1.0014926977702903</v>
@@ -8412,10 +8485,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G17" s="40">
         <f>COS(H12)*((TAN(G7)+TAN(G9))*(1-COS(H6-H8)))</f>
@@ -8426,18 +8499,18 @@
       <c r="J17" s="2"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="100">
+      <c r="C19" s="103">
         <v>6</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E19" s="3">
         <f>J19*G19 + J20*H19</f>
         <v>8.3066963446058462E-3</v>
       </c>
-      <c r="F19" s="95" t="s">
-        <v>254</v>
+      <c r="F19" s="98" t="s">
+        <v>253</v>
       </c>
       <c r="G19" s="42">
         <f>(COS(H12)*(SIN(H8)-SIN(H6)))/ G17</f>
@@ -8447,8 +8520,8 @@
         <f>-COS(H12) * (TAN(G7)*COS(H6)-TAN(G9)*COS(H8)) / G17</f>
         <v>0.25281984458836537</v>
       </c>
-      <c r="I19" s="96" t="s">
-        <v>255</v>
+      <c r="I19" s="99" t="s">
+        <v>254</v>
       </c>
       <c r="J19" s="44">
         <f>H10</f>
@@ -8456,15 +8529,15 @@
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="100"/>
+      <c r="C20" s="103"/>
       <c r="D20" s="41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E20" s="3">
         <f>J19*G20+J20*H20</f>
         <v>1.0014926977702903</v>
       </c>
-      <c r="F20" s="95"/>
+      <c r="F20" s="98"/>
       <c r="G20" s="42">
         <f>(COS(H6)-COS(H8)) / G17</f>
         <v>-0.43130081585840313</v>
@@ -8473,7 +8546,7 @@
         <f>(TAN(G9)*SIN(H8)-TAN(G7)*SIN(H6)) / G17</f>
         <v>-2.6149500988531704</v>
       </c>
-      <c r="I20" s="96"/>
+      <c r="I20" s="99"/>
       <c r="J20" s="44">
         <f>H11</f>
         <v>-0.35</v>
@@ -8481,7 +8554,7 @@
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D22" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E22">
         <f>E14* 60</f>
@@ -8490,7 +8563,7 @@
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D23" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E23">
         <f>E15*60</f>
@@ -8530,7 +8603,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -8538,57 +8611,57 @@
         <v>40</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="32" t="s">
         <v>157</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>158</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="H3" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="H3" s="32" t="s">
-        <v>162</v>
-      </c>
       <c r="I3" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B4" s="32">
         <v>9024000</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>164</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>165</v>
       </c>
       <c r="E4" s="32">
         <v>11136000</v>
       </c>
       <c r="F4" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="G4" s="32" t="s">
-        <v>168</v>
-      </c>
       <c r="H4" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I4" s="32">
         <v>2073600</v>
@@ -8599,7 +8672,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B5" s="32">
         <v>4.1780555555555555E-3</v>
@@ -8631,7 +8704,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B6" s="32">
         <v>0.1</v>
@@ -8663,7 +8736,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B7" s="32">
         <f t="shared" ref="B7:J7" si="0">B5*B6</f>
@@ -8704,7 +8777,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B8" s="32">
         <f t="shared" ref="B8:J8" si="1">B4/360/3600</f>
@@ -8745,7 +8818,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B9" s="32">
         <f t="shared" ref="B9:J9" si="2">1/B8/3600/B7 * 1000</f>
@@ -8800,57 +8873,57 @@
         <v>40</v>
       </c>
       <c r="B12" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="D12" s="32" t="s">
         <v>157</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>158</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="H12" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="H12" s="32" t="s">
-        <v>162</v>
-      </c>
       <c r="I12" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B13" s="32">
         <v>9024000</v>
       </c>
       <c r="C13" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>164</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>165</v>
       </c>
       <c r="E13" s="32">
         <v>11136000</v>
       </c>
       <c r="F13" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="G13" s="32" t="s">
-        <v>168</v>
-      </c>
       <c r="H13" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I13" s="32">
         <v>2073600</v>
@@ -8861,7 +8934,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B14" s="32">
         <v>4.1780555555555555E-3</v>
@@ -8893,7 +8966,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B15" s="32">
         <v>0.5</v>
@@ -8925,7 +8998,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B16" s="32">
         <f t="shared" ref="B16:J16" si="3">B14*B15</f>
@@ -8966,7 +9039,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B17" s="32">
         <f t="shared" ref="B17:J17" si="4">B13/360/3600</f>
@@ -9007,7 +9080,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B18" s="32">
         <f t="shared" ref="B18:J18" si="5">1/B17/3600/B16 * 1000</f>
@@ -9051,57 +9124,57 @@
         <v>40</v>
       </c>
       <c r="B21" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="D21" s="32" t="s">
         <v>157</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>158</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="H21" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="H21" s="32" t="s">
-        <v>162</v>
-      </c>
       <c r="I21" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B22" s="32">
         <v>9024000</v>
       </c>
       <c r="C22" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="32" t="s">
         <v>164</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>165</v>
       </c>
       <c r="E22" s="32">
         <v>11136000</v>
       </c>
       <c r="F22" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="G22" s="32" t="s">
-        <v>168</v>
-      </c>
       <c r="H22" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I22" s="32">
         <v>2073600</v>
@@ -9112,7 +9185,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B23" s="32">
         <v>4.1780555555555555E-3</v>
@@ -9144,7 +9217,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B24" s="32">
         <v>0.4</v>
@@ -9176,7 +9249,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B25" s="32">
         <f t="shared" ref="B25:J25" si="6">B23*B24</f>
@@ -9217,7 +9290,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B26" s="32">
         <f t="shared" ref="B26:J26" si="7">B22/360/3600</f>
@@ -9258,7 +9331,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B27" s="32">
         <f t="shared" ref="B27:J27" si="8">1/B26/3600/B25 * 1000</f>

--- a/Resources/Misc/SyntaCalculations.xlsx
+++ b/Resources/Misc/SyntaCalculations.xlsx
@@ -957,9 +957,6 @@
     <t>:q</t>
   </si>
   <si>
-    <t xml:space="preserve">0024F4 </t>
-  </si>
-  <si>
     <t>EQ8-Rh</t>
   </si>
   <si>
@@ -970,6 +967,9 @@
   </si>
   <si>
     <t>!0</t>
+  </si>
+  <si>
+    <t>AAF100</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1417,6 +1417,9 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1694,11 +1697,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="427359808"/>
-        <c:axId val="427352752"/>
+        <c:axId val="381351192"/>
+        <c:axId val="381351584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="427359808"/>
+        <c:axId val="381351192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,7 +1744,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427352752"/>
+        <c:crossAx val="381351584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1749,7 +1752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="427352752"/>
+        <c:axId val="381351584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1800,7 +1803,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427359808"/>
+        <c:crossAx val="381351192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2001,11 +2004,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="427355104"/>
-        <c:axId val="427353536"/>
+        <c:axId val="381350800"/>
+        <c:axId val="381352760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="427355104"/>
+        <c:axId val="381350800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2048,7 +2051,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427353536"/>
+        <c:crossAx val="381352760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2056,7 +2059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="427353536"/>
+        <c:axId val="381352760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2107,7 +2110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427355104"/>
+        <c:crossAx val="381350800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3599,7 +3602,7 @@
   <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4754,7 +4757,7 @@
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H39" s="55" t="s">
+      <c r="H39" s="104" t="s">
         <v>98</v>
       </c>
       <c r="I39" s="56"/>
@@ -4786,7 +4789,7 @@
       <c r="F40" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="61" t="s">
+      <c r="H40" s="106" t="s">
         <v>91</v>
       </c>
       <c r="I40" s="50">
@@ -4835,7 +4838,7 @@
       <c r="E41" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="61" t="s">
+      <c r="H41" s="106" t="s">
         <v>36</v>
       </c>
       <c r="I41" s="50">
@@ -4866,7 +4869,7 @@
       <c r="E42" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="61" t="s">
+      <c r="H42" s="106" t="s">
         <v>91</v>
       </c>
       <c r="I42" s="50">
@@ -4897,24 +4900,24 @@
       <c r="E43" t="s">
         <v>19</v>
       </c>
-      <c r="H43" s="61" t="s">
-        <v>308</v>
+      <c r="H43" s="106" t="s">
+        <v>312</v>
       </c>
       <c r="I43" s="50">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="J43" s="50">
         <f t="shared" si="8"/>
-        <v>9216</v>
+        <v>61696</v>
       </c>
       <c r="K43" s="50">
         <f t="shared" si="9"/>
-        <v>15990784</v>
+        <v>0</v>
       </c>
       <c r="L43" s="51">
         <f t="shared" si="10"/>
-        <v>16000000</v>
+        <v>61866</v>
       </c>
       <c r="N43" s="45">
         <v>9024000</v>
@@ -4928,7 +4931,7 @@
         <f>ROUNDUP(D43,0)</f>
         <v>2</v>
       </c>
-      <c r="H44" s="62"/>
+      <c r="H44" s="105"/>
       <c r="I44" s="53">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -5450,7 +5453,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7141,7 +7144,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7188,7 +7191,7 @@
         <v>306</v>
       </c>
       <c r="L1" s="95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -7449,6 +7452,9 @@
       <c r="I9" s="25">
         <v>64</v>
       </c>
+      <c r="K9" s="96">
+        <v>256</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
@@ -7994,19 +8000,19 @@
         <v>307</v>
       </c>
       <c r="B29" s="96" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F29">
         <v>76000</v>
       </c>
       <c r="G29" t="s">
+        <v>310</v>
+      </c>
+      <c r="H29" t="s">
+        <v>309</v>
+      </c>
+      <c r="I29" t="s">
         <v>311</v>
-      </c>
-      <c r="H29" t="s">
-        <v>310</v>
-      </c>
-      <c r="I29" t="s">
-        <v>312</v>
       </c>
       <c r="J29">
         <v>98000</v>

--- a/Resources/Misc/SyntaCalculations.xlsx
+++ b/Resources/Misc/SyntaCalculations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20085" windowHeight="10500" tabRatio="579" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20085" windowHeight="10500" tabRatio="579"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -969,7 +969,7 @@
     <t>!0</t>
   </si>
   <si>
-    <t>AAF100</t>
+    <t>100000</t>
   </si>
 </sst>
 </file>
@@ -1396,6 +1396,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1417,9 +1420,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1478,6 +1478,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1697,11 +1698,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="381351192"/>
-        <c:axId val="381351584"/>
+        <c:axId val="426189480"/>
+        <c:axId val="426194184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="381351192"/>
+        <c:axId val="426189480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,7 +1745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381351584"/>
+        <c:crossAx val="426194184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1752,7 +1753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="381351584"/>
+        <c:axId val="426194184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,7 +1804,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381351192"/>
+        <c:crossAx val="426189480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1867,6 +1868,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2004,11 +2006,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="381350800"/>
-        <c:axId val="381352760"/>
+        <c:axId val="426189872"/>
+        <c:axId val="426191832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="381350800"/>
+        <c:axId val="426189872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2051,7 +2053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381352760"/>
+        <c:crossAx val="426191832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2059,7 +2061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="381352760"/>
+        <c:axId val="426191832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2110,7 +2112,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381350800"/>
+        <c:crossAx val="426189872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3601,8 +3603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4757,7 +4759,7 @@
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H39" s="104" t="s">
+      <c r="H39" s="97" t="s">
         <v>98</v>
       </c>
       <c r="I39" s="56"/>
@@ -4789,7 +4791,7 @@
       <c r="F40" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="106" t="s">
+      <c r="H40" s="99" t="s">
         <v>91</v>
       </c>
       <c r="I40" s="50">
@@ -4838,7 +4840,7 @@
       <c r="E41" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="106" t="s">
+      <c r="H41" s="99" t="s">
         <v>36</v>
       </c>
       <c r="I41" s="50">
@@ -4869,7 +4871,7 @@
       <c r="E42" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="106" t="s">
+      <c r="H42" s="99" t="s">
         <v>91</v>
       </c>
       <c r="I42" s="50">
@@ -4900,16 +4902,16 @@
       <c r="E43" t="s">
         <v>19</v>
       </c>
-      <c r="H43" s="106" t="s">
+      <c r="H43" s="99" t="s">
         <v>312</v>
       </c>
       <c r="I43" s="50">
         <f t="shared" si="7"/>
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="J43" s="50">
         <f t="shared" si="8"/>
-        <v>61696</v>
+        <v>0</v>
       </c>
       <c r="K43" s="50">
         <f t="shared" si="9"/>
@@ -4917,7 +4919,7 @@
       </c>
       <c r="L43" s="51">
         <f t="shared" si="10"/>
-        <v>61866</v>
+        <v>16</v>
       </c>
       <c r="N43" s="45">
         <v>9024000</v>
@@ -4931,7 +4933,7 @@
         <f>ROUNDUP(D43,0)</f>
         <v>2</v>
       </c>
-      <c r="H44" s="105"/>
+      <c r="H44" s="98"/>
       <c r="I44" s="53">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7143,7 +7145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -8308,16 +8310,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8432,7 +8434,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="102">
+      <c r="C14" s="105">
         <v>4</v>
       </c>
       <c r="D14" s="35" t="s">
@@ -8442,7 +8444,7 @@
         <f>J14*G14+J15*H14</f>
         <v>-0.2</v>
       </c>
-      <c r="F14" s="100" t="s">
+      <c r="F14" s="103" t="s">
         <v>253</v>
       </c>
       <c r="G14" s="36">
@@ -8453,7 +8455,7 @@
         <f>COS(H12)*(TAN(G7)*COS(H6)-TAN(G9)*COS(H8))</f>
         <v>-0.18392326893206981</v>
       </c>
-      <c r="I14" s="101" t="s">
+      <c r="I14" s="104" t="s">
         <v>254</v>
       </c>
       <c r="J14" s="38">
@@ -8462,7 +8464,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="102"/>
+      <c r="C15" s="105"/>
       <c r="D15" s="35" t="s">
         <v>266</v>
       </c>
@@ -8470,7 +8472,7 @@
         <f>J14*G15+J15*H15</f>
         <v>-0.35000000000000003</v>
       </c>
-      <c r="F15" s="100"/>
+      <c r="F15" s="103"/>
       <c r="G15" s="36">
         <f>COS(H8) - COS(H6)</f>
         <v>0.31376593904209982</v>
@@ -8479,7 +8481,7 @@
         <f>COS(H12)*(SIN(H8)-SIN(H6))</f>
         <v>-0.35208080814162784</v>
       </c>
-      <c r="I15" s="101"/>
+      <c r="I15" s="104"/>
       <c r="J15" s="38">
         <f>E20</f>
         <v>1.0014926977702903</v>
@@ -8505,7 +8507,7 @@
       <c r="J17" s="2"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="103">
+      <c r="C19" s="106">
         <v>6</v>
       </c>
       <c r="D19" s="41" t="s">
@@ -8515,7 +8517,7 @@
         <f>J19*G19 + J20*H19</f>
         <v>8.3066963446058462E-3</v>
       </c>
-      <c r="F19" s="98" t="s">
+      <c r="F19" s="101" t="s">
         <v>253</v>
       </c>
       <c r="G19" s="42">
@@ -8526,7 +8528,7 @@
         <f>-COS(H12) * (TAN(G7)*COS(H6)-TAN(G9)*COS(H8)) / G17</f>
         <v>0.25281984458836537</v>
       </c>
-      <c r="I19" s="99" t="s">
+      <c r="I19" s="102" t="s">
         <v>254</v>
       </c>
       <c r="J19" s="44">
@@ -8535,7 +8537,7 @@
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="103"/>
+      <c r="C20" s="106"/>
       <c r="D20" s="41" t="s">
         <v>268</v>
       </c>
@@ -8543,7 +8545,7 @@
         <f>J19*G20+J20*H20</f>
         <v>1.0014926977702903</v>
       </c>
-      <c r="F20" s="98"/>
+      <c r="F20" s="101"/>
       <c r="G20" s="42">
         <f>(COS(H6)-COS(H8)) / G17</f>
         <v>-0.43130081585840313</v>
@@ -8552,7 +8554,7 @@
         <f>(TAN(G9)*SIN(H8)-TAN(G7)*SIN(H6)) / G17</f>
         <v>-2.6149500988531704</v>
       </c>
-      <c r="I20" s="99"/>
+      <c r="I20" s="102"/>
       <c r="J20" s="44">
         <f>H11</f>
         <v>-0.35</v>
